--- a/green_orange_purple/Condition_File_green_orange_purple.xlsx
+++ b/green_orange_purple/Condition_File_green_orange_purple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/green_orange_purple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103AD08E-A57E-6E4A-A31D-06D3704B2917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747D4D5D-6DC4-5348-B2AD-BB89A6A5DD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{50BE362F-E7B0-5840-BBD3-B85E4770FAD8}"/>
+    <workbookView xWindow="1980" yWindow="5480" windowWidth="29400" windowHeight="18380" xr2:uid="{50BE362F-E7B0-5840-BBD3-B85E4770FAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="1458">
   <si>
     <t>Jar1</t>
   </si>
@@ -746,9 +746,6 @@
     <t>./Stimuli/reg_trials/marblejar_right_64.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/reg_trials/marblejar_right_65.jpg</t>
-  </si>
-  <si>
     <t>./Stimuli/reg_trials/marblejar_right_66.jpg</t>
   </si>
   <si>
@@ -818,9 +815,6 @@
     <t>./Stimuli/reg_trials/marblejar_right_88.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/reg_trials/marblejar_right_89.jpg</t>
-  </si>
-  <si>
     <t>./Stimuli/reg_trials/marblejar_right_90.jpg</t>
   </si>
   <si>
@@ -1067,9 +1061,6 @@
     <t>['purple', 'purple', 'darkorange', 'green', 'darkorange', 'green', 'darkorange', 'green', 'darkorange']</t>
   </si>
   <si>
-    <t>['green', 'green', 'green', 'green', 'green', 'green', 'green', 'green', 'green']</t>
-  </si>
-  <si>
     <t>['green', 'darkorange', 'purple', 'green', 'green', 'darkorange', 'green', 'green', 'green']</t>
   </si>
   <si>
@@ -4404,6 +4395,18 @@
   </si>
   <si>
     <t>./Stimuli/marblejar_30points14.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/redo_marblejar_0.jpg</t>
+  </si>
+  <si>
+    <t>['darkorange', 'green', 'purple', 'darkorange', 'darkorange', 'green', 'purple', 'green', 'darkorange']</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/redo_marblejar_1.jpg</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'darkorange', 'darkorange','darkorange',  'green', 'darkorange', 'green']</t>
   </si>
 </sst>
 </file>
@@ -4467,7 +4470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4483,6 +4486,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4801,9 +4807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4763C67E-82ED-7748-9439-DB0637206C14}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4865,16 +4871,16 @@
     </row>
     <row r="2" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -4892,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
@@ -4906,16 +4912,16 @@
     </row>
     <row r="3" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -4933,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>18</v>
@@ -4947,16 +4953,16 @@
     </row>
     <row r="4" spans="1:13" ht="91" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -4974,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>13</v>
@@ -4988,16 +4994,16 @@
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -5015,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
@@ -5029,16 +5035,16 @@
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -5056,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>18</v>
@@ -5070,16 +5076,16 @@
     </row>
     <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -5097,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>18</v>
@@ -5111,16 +5117,16 @@
     </row>
     <row r="8" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -5138,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>13</v>
@@ -5152,16 +5158,16 @@
     </row>
     <row r="9" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -5179,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
@@ -5193,16 +5199,16 @@
     </row>
     <row r="10" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -5220,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>13</v>
@@ -5234,16 +5240,16 @@
     </row>
     <row r="11" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -5261,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>18</v>
@@ -5275,16 +5281,16 @@
     </row>
     <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -5302,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
@@ -5316,16 +5322,16 @@
     </row>
     <row r="13" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -5343,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>13</v>
@@ -5357,16 +5363,16 @@
     </row>
     <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
@@ -5384,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>13</v>
@@ -5398,16 +5404,16 @@
     </row>
     <row r="15" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
@@ -5425,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>13</v>
@@ -5439,16 +5445,16 @@
     </row>
     <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
@@ -5466,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>18</v>
@@ -5480,16 +5486,16 @@
     </row>
     <row r="17" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
@@ -5507,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>18</v>
@@ -5521,16 +5527,16 @@
     </row>
     <row r="18" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
@@ -5548,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>18</v>
@@ -5562,16 +5568,16 @@
     </row>
     <row r="19" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>16</v>
@@ -5589,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>18</v>
@@ -5603,16 +5609,16 @@
     </row>
     <row r="20" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>16</v>
@@ -5630,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>13</v>
@@ -5644,16 +5650,16 @@
     </row>
     <row r="21" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>16</v>
@@ -5671,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>13</v>
@@ -5685,16 +5691,16 @@
     </row>
     <row r="22" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
@@ -5712,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>13</v>
@@ -5726,16 +5732,16 @@
     </row>
     <row r="23" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>17</v>
@@ -5753,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>13</v>
@@ -5767,16 +5773,16 @@
     </row>
     <row r="24" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>17</v>
@@ -5794,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>18</v>
@@ -5808,16 +5814,16 @@
     </row>
     <row r="25" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
@@ -5835,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>18</v>
@@ -5849,16 +5855,16 @@
     </row>
     <row r="26" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>16</v>
@@ -5876,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>18</v>
@@ -5890,16 +5896,16 @@
     </row>
     <row r="27" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>16</v>
@@ -5917,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>13</v>
@@ -5931,16 +5937,16 @@
     </row>
     <row r="28" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>16</v>
@@ -5958,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>13</v>
@@ -5972,16 +5978,16 @@
     </row>
     <row r="29" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>16</v>
@@ -5999,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>13</v>
@@ -6013,16 +6019,16 @@
     </row>
     <row r="30" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>17</v>
@@ -6040,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>18</v>
@@ -6054,16 +6060,16 @@
     </row>
     <row r="31" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>17</v>
@@ -6081,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>13</v>
@@ -6095,16 +6101,16 @@
     </row>
     <row r="32" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>17</v>
@@ -6122,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>13</v>
@@ -6136,16 +6142,16 @@
     </row>
     <row r="33" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>17</v>
@@ -6163,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>18</v>
@@ -6177,16 +6183,16 @@
     </row>
     <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>16</v>
@@ -6204,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>18</v>
@@ -6218,16 +6224,16 @@
     </row>
     <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>16</v>
@@ -6245,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>13</v>
@@ -6259,16 +6265,16 @@
     </row>
     <row r="36" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>16</v>
@@ -6286,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>13</v>
@@ -6300,16 +6306,16 @@
     </row>
     <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>16</v>
@@ -6327,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>18</v>
@@ -6341,16 +6347,16 @@
     </row>
     <row r="38" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
@@ -6368,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>13</v>
@@ -6382,16 +6388,16 @@
     </row>
     <row r="39" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>17</v>
@@ -6409,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>13</v>
@@ -6423,16 +6429,16 @@
     </row>
     <row r="40" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>17</v>
@@ -6450,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>18</v>
@@ -6464,16 +6470,16 @@
     </row>
     <row r="41" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>17</v>
@@ -6491,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>18</v>
@@ -6505,16 +6511,16 @@
     </row>
     <row r="42" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>16</v>
@@ -6532,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>18</v>
@@ -6546,16 +6552,16 @@
     </row>
     <row r="43" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>16</v>
@@ -6573,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>13</v>
@@ -6587,16 +6593,16 @@
     </row>
     <row r="44" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>16</v>
@@ -6614,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>13</v>
@@ -6628,16 +6634,16 @@
     </row>
     <row r="45" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>16</v>
@@ -6655,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>13</v>
@@ -6669,16 +6675,16 @@
     </row>
     <row r="46" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>17</v>
@@ -6696,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>18</v>
@@ -6710,16 +6716,16 @@
     </row>
     <row r="47" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>17</v>
@@ -6737,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>18</v>
@@ -6751,16 +6757,16 @@
     </row>
     <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>17</v>
@@ -6778,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>13</v>
@@ -6792,16 +6798,16 @@
     </row>
     <row r="49" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>17</v>
@@ -6819,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>13</v>
@@ -6833,16 +6839,16 @@
     </row>
     <row r="50" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>16</v>
@@ -6860,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>13</v>
@@ -6874,16 +6880,16 @@
     </row>
     <row r="51" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>16</v>
@@ -6901,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>13</v>
@@ -6915,16 +6921,16 @@
     </row>
     <row r="52" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>16</v>
@@ -6942,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>18</v>
@@ -6956,16 +6962,16 @@
     </row>
     <row r="53" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>16</v>
@@ -6983,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>18</v>
@@ -6997,16 +7003,16 @@
     </row>
     <row r="54" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>17</v>
@@ -7024,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>13</v>
@@ -7038,16 +7044,16 @@
     </row>
     <row r="55" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>17</v>
@@ -7065,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>18</v>
@@ -7079,16 +7085,16 @@
     </row>
     <row r="56" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>17</v>
@@ -7106,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>13</v>
@@ -7120,16 +7126,16 @@
     </row>
     <row r="57" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>17</v>
@@ -7147,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>18</v>
@@ -7161,16 +7167,16 @@
     </row>
     <row r="58" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>16</v>
@@ -7188,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>18</v>
@@ -7202,16 +7208,16 @@
     </row>
     <row r="59" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>16</v>
@@ -7229,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>13</v>
@@ -7243,16 +7249,16 @@
     </row>
     <row r="60" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>16</v>
@@ -7270,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>13</v>
@@ -7284,16 +7290,16 @@
     </row>
     <row r="61" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>16</v>
@@ -7311,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>13</v>
@@ -7325,16 +7331,16 @@
     </row>
     <row r="62" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>17</v>
@@ -7352,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>18</v>
@@ -7366,16 +7372,16 @@
     </row>
     <row r="63" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>17</v>
@@ -7393,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>18</v>
@@ -7407,16 +7413,16 @@
     </row>
     <row r="64" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>17</v>
@@ -7434,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>13</v>
@@ -7448,16 +7454,16 @@
     </row>
     <row r="65" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>17</v>
@@ -7475,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>13</v>
@@ -7489,16 +7495,16 @@
     </row>
     <row r="66" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>16</v>
@@ -7516,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>18</v>
@@ -7530,16 +7536,16 @@
     </row>
     <row r="67" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>16</v>
@@ -7557,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>18</v>
@@ -7571,16 +7577,16 @@
     </row>
     <row r="68" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>16</v>
@@ -7598,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>13</v>
@@ -7612,16 +7618,16 @@
     </row>
     <row r="69" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>16</v>
@@ -7639,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>13</v>
@@ -7653,16 +7659,16 @@
     </row>
     <row r="70" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>17</v>
@@ -7680,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>13</v>
@@ -7694,16 +7700,16 @@
     </row>
     <row r="71" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>17</v>
@@ -7721,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>18</v>
@@ -7735,16 +7741,16 @@
     </row>
     <row r="72" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>17</v>
@@ -7762,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>18</v>
@@ -7776,16 +7782,16 @@
     </row>
     <row r="73" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>17</v>
@@ -7803,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>13</v>
@@ -7817,16 +7823,16 @@
     </row>
     <row r="74" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>16</v>
@@ -7844,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>13</v>
@@ -7858,16 +7864,16 @@
     </row>
     <row r="75" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>16</v>
@@ -7885,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>13</v>
@@ -7899,16 +7905,16 @@
     </row>
     <row r="76" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>16</v>
@@ -7926,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>13</v>
@@ -7940,16 +7946,16 @@
     </row>
     <row r="77" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>16</v>
@@ -7967,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>18</v>
@@ -7981,16 +7987,16 @@
     </row>
     <row r="78" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>17</v>
@@ -8008,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>18</v>
@@ -8022,16 +8028,16 @@
     </row>
     <row r="79" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>17</v>
@@ -8049,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>13</v>
@@ -8063,16 +8069,16 @@
     </row>
     <row r="80" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>17</v>
@@ -8090,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>18</v>
@@ -8104,7 +8110,7 @@
     </row>
     <row r="81" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>167</v>
@@ -8113,7 +8119,7 @@
         <v>173</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>17</v>
@@ -8131,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>13</v>
@@ -8145,10 +8151,10 @@
     </row>
     <row r="82" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>174</v>
@@ -8172,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>18</v>
@@ -8186,16 +8192,16 @@
     </row>
     <row r="83" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>16</v>
@@ -8213,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>13</v>
@@ -8227,16 +8233,16 @@
     </row>
     <row r="84" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>16</v>
@@ -8254,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>13</v>
@@ -8268,16 +8274,16 @@
     </row>
     <row r="85" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>16</v>
@@ -8295,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>13</v>
@@ -8309,16 +8315,16 @@
     </row>
     <row r="86" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>17</v>
@@ -8336,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>18</v>
@@ -8350,16 +8356,16 @@
     </row>
     <row r="87" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>17</v>
@@ -8377,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>13</v>
@@ -8391,10 +8397,10 @@
     </row>
     <row r="88" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>180</v>
@@ -8418,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>18</v>
@@ -8432,16 +8438,16 @@
     </row>
     <row r="89" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>17</v>
@@ -8459,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>13</v>
@@ -8473,10 +8479,10 @@
     </row>
     <row r="90" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>182</v>
@@ -8500,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>13</v>
@@ -8514,16 +8520,16 @@
     </row>
     <row r="91" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>16</v>
@@ -8541,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>13</v>
@@ -8555,16 +8561,16 @@
     </row>
     <row r="92" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>16</v>
@@ -8582,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>13</v>
@@ -8596,7 +8602,7 @@
     </row>
     <row r="93" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>163</v>
@@ -8605,7 +8611,7 @@
         <v>185</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>16</v>
@@ -8623,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>18</v>
@@ -8637,16 +8643,16 @@
     </row>
     <row r="94" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>17</v>
@@ -8664,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>18</v>
@@ -8678,16 +8684,16 @@
     </row>
     <row r="95" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>17</v>
@@ -8705,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>18</v>
@@ -8719,7 +8725,7 @@
     </row>
     <row r="96" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>22</v>
@@ -8728,7 +8734,7 @@
         <v>188</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>17</v>
@@ -8746,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>13</v>
@@ -8760,16 +8766,16 @@
     </row>
     <row r="97" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>17</v>
@@ -8787,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>18</v>
@@ -8801,16 +8807,16 @@
     </row>
     <row r="98" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>16</v>
@@ -8828,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>13</v>
@@ -8842,10 +8848,10 @@
     </row>
     <row r="99" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>191</v>
@@ -8869,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>13</v>
@@ -8883,16 +8889,16 @@
     </row>
     <row r="100" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>16</v>
@@ -8910,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>18</v>
@@ -8924,16 +8930,16 @@
     </row>
     <row r="101" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>16</v>
@@ -8951,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="K101" s="5" t="s">
         <v>18</v>
@@ -8965,16 +8971,16 @@
     </row>
     <row r="102" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>17</v>
@@ -8992,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>18</v>
@@ -9006,16 +9012,16 @@
     </row>
     <row r="103" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>17</v>
@@ -9033,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="K103" s="5" t="s">
         <v>13</v>
@@ -9047,16 +9053,16 @@
     </row>
     <row r="104" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>17</v>
@@ -9074,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>13</v>
@@ -9088,16 +9094,16 @@
     </row>
     <row r="105" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>17</v>
@@ -9115,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>13</v>
@@ -9129,7 +9135,7 @@
     </row>
     <row r="106" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>28</v>
@@ -9138,7 +9144,7 @@
         <v>199</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>16</v>
@@ -9156,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>13</v>
@@ -9170,16 +9176,16 @@
     </row>
     <row r="107" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>16</v>
@@ -9197,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>18</v>
@@ -9211,16 +9217,16 @@
     </row>
     <row r="108" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>16</v>
@@ -9238,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>13</v>
@@ -9252,16 +9258,16 @@
     </row>
     <row r="109" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>16</v>
@@ -9279,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>13</v>
@@ -9293,16 +9299,16 @@
     </row>
     <row r="110" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>17</v>
@@ -9320,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>18</v>
@@ -9334,16 +9340,16 @@
     </row>
     <row r="111" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>17</v>
@@ -9361,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>13</v>
@@ -9375,16 +9381,16 @@
     </row>
     <row r="112" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>17</v>
@@ -9402,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>13</v>
@@ -9416,16 +9422,16 @@
     </row>
     <row r="113" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>17</v>
@@ -9443,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>18</v>
@@ -9457,16 +9463,16 @@
     </row>
     <row r="114" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>16</v>
@@ -9484,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>18</v>
@@ -9498,10 +9504,10 @@
     </row>
     <row r="115" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>208</v>
@@ -9525,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>13</v>
@@ -9539,16 +9545,16 @@
     </row>
     <row r="116" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>16</v>
@@ -9566,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>18</v>
@@ -9580,16 +9586,16 @@
     </row>
     <row r="117" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>16</v>
@@ -9607,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>18</v>
@@ -9621,16 +9627,16 @@
     </row>
     <row r="118" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>17</v>
@@ -9648,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>13</v>
@@ -9662,16 +9668,16 @@
     </row>
     <row r="119" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>17</v>
@@ -9689,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>13</v>
@@ -9703,16 +9709,16 @@
     </row>
     <row r="120" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>17</v>
@@ -9730,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>18</v>
@@ -9744,16 +9750,16 @@
     </row>
     <row r="121" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>17</v>
@@ -9771,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>18</v>
@@ -9785,16 +9791,16 @@
     </row>
     <row r="122" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>16</v>
@@ -9812,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="K122" s="5" t="s">
         <v>13</v>
@@ -9826,16 +9832,16 @@
     </row>
     <row r="123" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>16</v>
@@ -9853,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>18</v>
@@ -9867,16 +9873,16 @@
     </row>
     <row r="124" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>16</v>
@@ -9894,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>18</v>
@@ -9908,10 +9914,10 @@
     </row>
     <row r="125" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>220</v>
@@ -9935,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="K125" s="5" t="s">
         <v>18</v>
@@ -9949,16 +9955,16 @@
     </row>
     <row r="126" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>17</v>
@@ -9976,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>18</v>
@@ -9990,16 +9996,16 @@
     </row>
     <row r="127" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>17</v>
@@ -10017,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K127" s="5" t="s">
         <v>18</v>
@@ -10031,16 +10037,16 @@
     </row>
     <row r="128" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>17</v>
@@ -10058,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>13</v>
@@ -10072,16 +10078,16 @@
     </row>
     <row r="129" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>17</v>
@@ -10099,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>13</v>
@@ -10113,10 +10119,10 @@
     </row>
     <row r="130" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>225</v>
@@ -10140,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>18</v>
@@ -10154,16 +10160,16 @@
     </row>
     <row r="131" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>16</v>
@@ -10181,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>18</v>
@@ -10195,10 +10201,10 @@
     </row>
     <row r="132" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>227</v>
@@ -10222,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>13</v>
@@ -10236,10 +10242,10 @@
     </row>
     <row r="133" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>228</v>
@@ -10263,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="K133" s="5" t="s">
         <v>13</v>
@@ -10277,16 +10283,16 @@
     </row>
     <row r="134" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>17</v>
@@ -10304,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>18</v>
@@ -10318,16 +10324,16 @@
     </row>
     <row r="135" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>17</v>
@@ -10345,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="K135" s="5" t="s">
         <v>18</v>
@@ -10359,16 +10365,16 @@
     </row>
     <row r="136" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>17</v>
@@ -10386,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>18</v>
@@ -10400,7 +10406,7 @@
     </row>
     <row r="137" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>168</v>
@@ -10409,7 +10415,7 @@
         <v>232</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>17</v>
@@ -10427,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="K137" s="5" t="s">
         <v>18</v>
@@ -10441,7 +10447,7 @@
     </row>
     <row r="138" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>38</v>
@@ -10450,7 +10456,7 @@
         <v>233</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>16</v>
@@ -10468,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>13</v>
@@ -10482,16 +10488,16 @@
     </row>
     <row r="139" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>16</v>
@@ -10509,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="K139" s="5" t="s">
         <v>13</v>
@@ -10523,16 +10529,16 @@
     </row>
     <row r="140" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>16</v>
@@ -10550,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>18</v>
@@ -10564,16 +10570,16 @@
     </row>
     <row r="141" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>16</v>
@@ -10591,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K141" s="5" t="s">
         <v>18</v>
@@ -10603,18 +10609,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>344</v>
+        <v>506</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>1457</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>17</v>
@@ -10632,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="K142" s="5" t="s">
         <v>13</v>
@@ -10646,16 +10652,16 @@
     </row>
     <row r="143" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>17</v>
@@ -10673,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="K143" s="5" t="s">
         <v>18</v>
@@ -10687,16 +10693,16 @@
     </row>
     <row r="144" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>17</v>
@@ -10714,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="K144" s="5" t="s">
         <v>13</v>
@@ -10728,16 +10734,16 @@
     </row>
     <row r="145" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>17</v>
@@ -10755,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="K145" s="5" t="s">
         <v>18</v>
@@ -10769,16 +10775,16 @@
     </row>
     <row r="146" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>16</v>
@@ -10796,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>18</v>
@@ -10810,16 +10816,16 @@
     </row>
     <row r="147" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>16</v>
@@ -10837,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K147" s="5" t="s">
         <v>18</v>
@@ -10851,16 +10857,16 @@
     </row>
     <row r="148" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>16</v>
@@ -10878,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K148" s="5" t="s">
         <v>13</v>
@@ -10892,16 +10898,16 @@
     </row>
     <row r="149" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>16</v>
@@ -10919,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="K149" s="5" t="s">
         <v>18</v>
@@ -10933,16 +10939,16 @@
     </row>
     <row r="150" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>17</v>
@@ -10960,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>18</v>
@@ -10974,16 +10980,16 @@
     </row>
     <row r="151" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>17</v>
@@ -11001,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K151" s="5" t="s">
         <v>18</v>
@@ -11015,16 +11021,16 @@
     </row>
     <row r="152" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>17</v>
@@ -11042,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="K152" s="5" t="s">
         <v>13</v>
@@ -11056,16 +11062,16 @@
     </row>
     <row r="153" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>17</v>
@@ -11083,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="K153" s="5" t="s">
         <v>18</v>
@@ -11097,16 +11103,16 @@
     </row>
     <row r="154" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>16</v>
@@ -11124,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="K154" s="5" t="s">
         <v>18</v>
@@ -11138,16 +11144,16 @@
     </row>
     <row r="155" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>16</v>
@@ -11165,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="K155" s="5" t="s">
         <v>18</v>
@@ -11179,16 +11185,16 @@
     </row>
     <row r="156" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>16</v>
@@ -11206,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="K156" s="5" t="s">
         <v>18</v>
@@ -11220,16 +11226,16 @@
     </row>
     <row r="157" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>16</v>
@@ -11247,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="K157" s="5" t="s">
         <v>18</v>
@@ -11261,16 +11267,16 @@
     </row>
     <row r="158" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>17</v>
@@ -11288,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K158" s="5" t="s">
         <v>13</v>
@@ -11302,16 +11308,16 @@
     </row>
     <row r="159" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>17</v>
@@ -11329,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="K159" s="5" t="s">
         <v>13</v>
@@ -11343,16 +11349,16 @@
     </row>
     <row r="160" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>17</v>
@@ -11370,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>13</v>
@@ -11384,16 +11390,16 @@
     </row>
     <row r="161" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>17</v>
@@ -11411,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="K161" s="5" t="s">
         <v>13</v>
@@ -11425,16 +11431,16 @@
     </row>
     <row r="162" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>16</v>
@@ -11452,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="K162" s="5" t="s">
         <v>13</v>
@@ -11466,16 +11472,16 @@
     </row>
     <row r="163" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>16</v>
@@ -11493,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="K163" s="5" t="s">
         <v>13</v>
@@ -11507,16 +11513,16 @@
     </row>
     <row r="164" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>16</v>
@@ -11534,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K164" s="5" t="s">
         <v>13</v>
@@ -11548,16 +11554,16 @@
     </row>
     <row r="165" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>16</v>
@@ -11575,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K165" s="5" t="s">
         <v>13</v>
@@ -11587,18 +11593,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>344</v>
+        <v>550</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>1455</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>17</v>
@@ -11616,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="K166" s="5" t="s">
         <v>13</v>
@@ -11630,16 +11636,16 @@
     </row>
     <row r="167" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>17</v>
@@ -11657,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="K167" s="5" t="s">
         <v>18</v>
@@ -11671,16 +11677,16 @@
     </row>
     <row r="168" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>17</v>
@@ -11698,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="K168" s="5" t="s">
         <v>18</v>
@@ -11712,16 +11718,16 @@
     </row>
     <row r="169" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>17</v>
@@ -11739,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="K169" s="5" t="s">
         <v>13</v>
@@ -11753,16 +11759,16 @@
     </row>
     <row r="170" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>16</v>
@@ -11780,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="K170" s="5" t="s">
         <v>13</v>
@@ -11794,16 +11800,16 @@
     </row>
     <row r="171" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>16</v>
@@ -11821,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="K171" s="5" t="s">
         <v>18</v>
@@ -11835,16 +11841,16 @@
     </row>
     <row r="172" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>16</v>
@@ -11862,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="K172" s="5" t="s">
         <v>18</v>
@@ -11876,13 +11882,13 @@
     </row>
     <row r="173" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>26</v>
@@ -11903,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="K173" s="5" t="s">
         <v>18</v>
@@ -11917,16 +11923,16 @@
     </row>
     <row r="174" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>17</v>
@@ -11944,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="K174" s="5" t="s">
         <v>18</v>
@@ -11958,16 +11964,16 @@
     </row>
     <row r="175" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>17</v>
@@ -11985,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="K175" s="5" t="s">
         <v>13</v>
@@ -11999,16 +12005,16 @@
     </row>
     <row r="176" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>17</v>
@@ -12026,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="K176" s="5" t="s">
         <v>13</v>
@@ -12040,16 +12046,16 @@
     </row>
     <row r="177" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>17</v>
@@ -12067,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="K177" s="5" t="s">
         <v>13</v>
@@ -12081,16 +12087,16 @@
     </row>
     <row r="178" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>16</v>
@@ -12108,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="K178" s="5" t="s">
         <v>18</v>
@@ -12122,16 +12128,16 @@
     </row>
     <row r="179" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>16</v>
@@ -12149,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="K179" s="5" t="s">
         <v>13</v>
@@ -12163,16 +12169,16 @@
     </row>
     <row r="180" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>16</v>
@@ -12190,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="K180" s="5" t="s">
         <v>18</v>
@@ -12204,16 +12210,16 @@
     </row>
     <row r="181" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>16</v>
@@ -12231,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="K181" s="5" t="s">
         <v>18</v>
@@ -12245,16 +12251,16 @@
     </row>
     <row r="182" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>17</v>
@@ -12272,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="K182" s="5" t="s">
         <v>18</v>
@@ -12286,16 +12292,16 @@
     </row>
     <row r="183" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>17</v>
@@ -12313,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="K183" s="5" t="s">
         <v>13</v>
@@ -12327,16 +12333,16 @@
     </row>
     <row r="184" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>17</v>
@@ -12354,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="K184" s="5" t="s">
         <v>13</v>
@@ -12368,16 +12374,16 @@
     </row>
     <row r="185" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>17</v>
@@ -12395,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>18</v>
@@ -12409,16 +12415,16 @@
     </row>
     <row r="186" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>16</v>
@@ -12436,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>13</v>
@@ -12450,16 +12456,16 @@
     </row>
     <row r="187" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>16</v>
@@ -12477,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>18</v>
@@ -12491,16 +12497,16 @@
     </row>
     <row r="188" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>16</v>
@@ -12518,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>13</v>
@@ -12535,13 +12541,13 @@
         <v>39</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>16</v>
@@ -12559,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>13</v>
@@ -12576,13 +12582,13 @@
         <v>40</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>17</v>
@@ -12600,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>13</v>
@@ -12617,10 +12623,10 @@
         <v>41</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>196</v>
@@ -12641,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>18</v>
@@ -12658,13 +12664,13 @@
         <v>42</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>17</v>
@@ -12682,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>18</v>
@@ -12702,10 +12708,10 @@
         <v>216</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>17</v>
@@ -12723,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>13</v>
@@ -12740,13 +12746,13 @@
         <v>45</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>16</v>
@@ -12764,7 +12770,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>18</v>
@@ -12781,13 +12787,13 @@
         <v>46</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>16</v>
@@ -12805,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>13</v>
@@ -12822,10 +12828,10 @@
         <v>47</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>27</v>
@@ -12846,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>13</v>
@@ -12863,13 +12869,13 @@
         <v>49</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>16</v>
@@ -12887,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>18</v>
@@ -12904,13 +12910,13 @@
         <v>50</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>17</v>
@@ -12928,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>13</v>
@@ -12945,13 +12951,13 @@
         <v>51</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>17</v>
@@ -12969,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="K199" s="1" t="s">
         <v>18</v>
@@ -12986,13 +12992,13 @@
         <v>53</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>17</v>
@@ -13010,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="K200" s="1" t="s">
         <v>18</v>
@@ -13027,13 +13033,13 @@
         <v>54</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>17</v>
@@ -13051,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>13</v>
@@ -13068,13 +13074,13 @@
         <v>55</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>16</v>
@@ -13092,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>18</v>
@@ -13109,13 +13115,13 @@
         <v>56</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>16</v>
@@ -13133,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>13</v>
@@ -13150,13 +13156,13 @@
         <v>57</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>16</v>
@@ -13174,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>18</v>
@@ -13191,13 +13197,13 @@
         <v>58</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>16</v>
@@ -13215,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="K205" s="1" t="s">
         <v>13</v>
@@ -13232,13 +13238,13 @@
         <v>59</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>17</v>
@@ -13256,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>18</v>
@@ -13276,10 +13282,10 @@
         <v>152</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>17</v>
@@ -13297,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>18</v>
@@ -13314,13 +13320,13 @@
         <v>62</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>17</v>
@@ -13338,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>13</v>
@@ -13358,10 +13364,10 @@
         <v>37</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>17</v>
@@ -13379,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>13</v>
@@ -13396,13 +13402,13 @@
         <v>64</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>16</v>
@@ -13420,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>13</v>
@@ -13437,13 +13443,13 @@
         <v>65</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>16</v>
@@ -13461,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>13</v>
@@ -13478,13 +13484,13 @@
         <v>66</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>16</v>
@@ -13502,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>18</v>
@@ -13519,13 +13525,13 @@
         <v>67</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>16</v>
@@ -13543,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>13</v>
@@ -13560,13 +13566,13 @@
         <v>68</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>17</v>
@@ -13584,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>18</v>
@@ -13601,13 +13607,13 @@
         <v>69</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>17</v>
@@ -13625,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>13</v>
@@ -13642,13 +13648,13 @@
         <v>70</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>17</v>
@@ -13666,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>13</v>
@@ -13683,13 +13689,13 @@
         <v>71</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>17</v>
@@ -13707,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>18</v>
@@ -13724,13 +13730,13 @@
         <v>72</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>16</v>
@@ -13748,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>13</v>
@@ -13765,13 +13771,13 @@
         <v>73</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>16</v>
@@ -13789,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>18</v>
@@ -13806,13 +13812,13 @@
         <v>74</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>16</v>
@@ -13830,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>13</v>
@@ -13847,10 +13853,10 @@
         <v>75</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>48</v>
@@ -13871,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>13</v>
@@ -13888,13 +13894,13 @@
         <v>76</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>17</v>
@@ -13912,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>18</v>
@@ -13929,13 +13935,13 @@
         <v>77</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>17</v>
@@ -13953,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="K223" s="1" t="s">
         <v>18</v>
@@ -13970,13 +13976,13 @@
         <v>78</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>17</v>
@@ -13994,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>13</v>
@@ -14011,13 +14017,13 @@
         <v>79</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>17</v>
@@ -14035,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>13</v>
@@ -14052,13 +14058,13 @@
         <v>80</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>16</v>
@@ -14076,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>13</v>
@@ -14093,13 +14099,13 @@
         <v>81</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>16</v>
@@ -14117,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>18</v>
@@ -14134,13 +14140,13 @@
         <v>82</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>16</v>
@@ -14158,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>13</v>
@@ -14175,13 +14181,13 @@
         <v>83</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>16</v>
@@ -14199,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="K229" s="1" t="s">
         <v>18</v>
@@ -14216,13 +14222,13 @@
         <v>84</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>17</v>
@@ -14240,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>13</v>
@@ -14257,10 +14263,10 @@
         <v>85</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>113</v>
@@ -14281,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>13</v>
@@ -14298,10 +14304,10 @@
         <v>86</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>24</v>
@@ -14322,7 +14328,7 @@
         <v>0</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="K232" s="1" t="s">
         <v>18</v>
@@ -14339,13 +14345,13 @@
         <v>87</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>17</v>
@@ -14363,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>18</v>
@@ -14380,13 +14386,13 @@
         <v>88</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>16</v>
@@ -14404,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="K234" s="1" t="s">
         <v>18</v>
@@ -14421,13 +14427,13 @@
         <v>89</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>16</v>
@@ -14445,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>13</v>
@@ -14462,13 +14468,13 @@
         <v>90</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>16</v>
@@ -14486,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>18</v>
@@ -14503,13 +14509,13 @@
         <v>91</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>16</v>
@@ -14527,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>13</v>
@@ -14544,13 +14550,13 @@
         <v>92</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>17</v>
@@ -14568,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>13</v>
@@ -14585,13 +14591,13 @@
         <v>93</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>17</v>
@@ -14609,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="K239" s="1" t="s">
         <v>18</v>
@@ -14626,13 +14632,13 @@
         <v>94</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>17</v>
@@ -14650,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>13</v>
@@ -14667,13 +14673,13 @@
         <v>95</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>17</v>
@@ -14691,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>13</v>
@@ -14711,10 +14717,10 @@
         <v>161</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>16</v>
@@ -14732,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>13</v>
@@ -14749,13 +14755,13 @@
         <v>97</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>16</v>
@@ -14773,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>18</v>
@@ -14790,13 +14796,13 @@
         <v>98</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>16</v>
@@ -14814,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>13</v>
@@ -14831,13 +14837,13 @@
         <v>99</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>16</v>
@@ -14855,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>13</v>
@@ -14872,13 +14878,13 @@
         <v>100</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>17</v>
@@ -14896,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>18</v>
@@ -14913,13 +14919,13 @@
         <v>101</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>17</v>
@@ -14937,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>18</v>
@@ -14954,13 +14960,13 @@
         <v>102</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>17</v>
@@ -14978,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>13</v>
@@ -14995,13 +15001,13 @@
         <v>103</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>17</v>
@@ -15019,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>18</v>
@@ -15036,13 +15042,13 @@
         <v>104</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>16</v>
@@ -15060,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>13</v>
@@ -15077,13 +15083,13 @@
         <v>105</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>16</v>
@@ -15101,7 +15107,7 @@
         <v>0</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K251" s="1" t="s">
         <v>13</v>
@@ -15118,13 +15124,13 @@
         <v>106</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>16</v>
@@ -15142,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>18</v>
@@ -15159,13 +15165,13 @@
         <v>107</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>16</v>
@@ -15183,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="K253" s="1" t="s">
         <v>18</v>
@@ -15200,13 +15206,13 @@
         <v>108</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>17</v>
@@ -15224,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K254" s="1" t="s">
         <v>13</v>
@@ -15241,13 +15247,13 @@
         <v>109</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>17</v>
@@ -15265,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>18</v>
@@ -15282,13 +15288,13 @@
         <v>110</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>17</v>
@@ -15306,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>18</v>
@@ -15323,13 +15329,13 @@
         <v>111</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>17</v>
@@ -15347,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>13</v>
@@ -15364,13 +15370,13 @@
         <v>112</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>16</v>
@@ -15388,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>13</v>
@@ -15405,13 +15411,13 @@
         <v>114</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>16</v>
@@ -15429,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>18</v>
@@ -15446,13 +15452,13 @@
         <v>115</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>16</v>
@@ -15470,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>13</v>
@@ -15487,13 +15493,13 @@
         <v>116</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>16</v>
@@ -15511,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>13</v>
@@ -15528,13 +15534,13 @@
         <v>117</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>17</v>
@@ -15552,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>18</v>
@@ -15569,13 +15575,13 @@
         <v>118</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>17</v>
@@ -15593,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>18</v>
@@ -15610,13 +15616,13 @@
         <v>119</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>17</v>
@@ -15634,7 +15640,7 @@
         <v>0</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K264" s="1" t="s">
         <v>13</v>
@@ -15651,13 +15657,13 @@
         <v>120</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>17</v>
@@ -15675,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>18</v>
@@ -15695,10 +15701,10 @@
         <v>43</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>16</v>
@@ -15716,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>18</v>
@@ -15733,13 +15739,13 @@
         <v>122</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>16</v>
@@ -15757,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>18</v>
@@ -15777,10 +15783,10 @@
         <v>164</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>16</v>
@@ -15798,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>13</v>
@@ -15815,13 +15821,13 @@
         <v>124</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>16</v>
@@ -15839,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>18</v>
@@ -15856,13 +15862,13 @@
         <v>125</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>17</v>
@@ -15880,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>18</v>
@@ -15897,13 +15903,13 @@
         <v>126</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>17</v>
@@ -15921,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>18</v>
@@ -15938,13 +15944,13 @@
         <v>127</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>17</v>
@@ -15962,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="K272" s="1" t="s">
         <v>18</v>
@@ -15979,13 +15985,13 @@
         <v>128</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>17</v>
@@ -16003,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>13</v>
@@ -16020,13 +16026,13 @@
         <v>129</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>16</v>
@@ -16044,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>13</v>
@@ -16061,10 +16067,10 @@
         <v>130</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>34</v>
@@ -16085,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>13</v>
@@ -16102,13 +16108,13 @@
         <v>131</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>16</v>
@@ -16126,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>18</v>
@@ -16143,13 +16149,13 @@
         <v>132</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>16</v>
@@ -16167,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>18</v>
@@ -16184,13 +16190,13 @@
         <v>133</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>17</v>
@@ -16208,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>18</v>
@@ -16225,13 +16231,13 @@
         <v>134</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>17</v>
@@ -16249,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>18</v>
@@ -16266,13 +16272,13 @@
         <v>135</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>17</v>
@@ -16290,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>13</v>
@@ -16307,13 +16313,13 @@
         <v>136</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>17</v>
@@ -16331,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>13</v>
@@ -16348,13 +16354,13 @@
         <v>137</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>16</v>
@@ -16372,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>13</v>
@@ -16389,10 +16395,10 @@
         <v>138</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>142</v>
@@ -16413,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>18</v>
@@ -16430,13 +16436,13 @@
         <v>139</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>16</v>
@@ -16454,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>13</v>
@@ -16471,13 +16477,13 @@
         <v>140</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>16</v>
@@ -16495,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>18</v>
@@ -16512,13 +16518,13 @@
         <v>141</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>17</v>
@@ -16536,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>18</v>
@@ -16553,13 +16559,13 @@
         <v>143</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>17</v>
@@ -16577,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>13</v>
@@ -16594,13 +16600,13 @@
         <v>144</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>17</v>
@@ -16618,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>13</v>
@@ -16635,13 +16641,13 @@
         <v>145</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>17</v>
@@ -16659,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>13</v>
@@ -16676,13 +16682,13 @@
         <v>146</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>16</v>
@@ -16700,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>18</v>
@@ -16717,13 +16723,13 @@
         <v>147</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>16</v>
@@ -16741,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>18</v>
@@ -16758,13 +16764,13 @@
         <v>148</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>16</v>
@@ -16782,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>18</v>
@@ -16802,10 +16808,10 @@
         <v>32</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>16</v>
@@ -16823,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>18</v>
@@ -16840,13 +16846,13 @@
         <v>150</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>17</v>
@@ -16864,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>18</v>
@@ -16881,13 +16887,13 @@
         <v>151</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>17</v>
@@ -16905,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>18</v>
@@ -16922,13 +16928,13 @@
         <v>153</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>17</v>
@@ -16946,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>13</v>
@@ -16963,10 +16969,10 @@
         <v>154</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>211</v>
@@ -16987,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>18</v>
@@ -17004,13 +17010,13 @@
         <v>155</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>16</v>
@@ -17028,7 +17034,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>18</v>
@@ -17045,13 +17051,13 @@
         <v>156</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>16</v>
@@ -17069,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>13</v>
@@ -17086,10 +17092,10 @@
         <v>157</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>52</v>
@@ -17110,7 +17116,7 @@
         <v>0</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>18</v>
@@ -17127,10 +17133,10 @@
         <v>158</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>159</v>
@@ -17151,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>13</v>

--- a/green_orange_purple/Condition_File_green_orange_purple.xlsx
+++ b/green_orange_purple/Condition_File_green_orange_purple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/green_orange_purple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747D4D5D-6DC4-5348-B2AD-BB89A6A5DD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E943C8-FC97-C94A-BB70-5996273416F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="5480" windowWidth="29400" windowHeight="18380" xr2:uid="{50BE362F-E7B0-5840-BBD3-B85E4770FAD8}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="13160" xr2:uid="{50BE362F-E7B0-5840-BBD3-B85E4770FAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4470,7 +4470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4486,9 +4486,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4807,9 +4804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4763C67E-82ED-7748-9439-DB0637206C14}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4882,7 +4879,7 @@
       <c r="D2" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1">
@@ -4923,7 +4920,7 @@
       <c r="D3" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1">
@@ -4964,7 +4961,7 @@
       <c r="D4" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1">
@@ -5005,7 +5002,7 @@
       <c r="D5" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1">
@@ -5046,7 +5043,7 @@
       <c r="D6" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1">
@@ -5087,7 +5084,7 @@
       <c r="D7" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1">
@@ -5128,7 +5125,7 @@
       <c r="D8" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="1">
@@ -5169,7 +5166,7 @@
       <c r="D9" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1">
@@ -5210,7 +5207,7 @@
       <c r="D10" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1">
@@ -5251,7 +5248,7 @@
       <c r="D11" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1">
@@ -5292,7 +5289,7 @@
       <c r="D12" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1">
@@ -5333,7 +5330,7 @@
       <c r="D13" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="1">
@@ -5374,7 +5371,7 @@
       <c r="D14" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="1">
@@ -5415,7 +5412,7 @@
       <c r="D15" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="1">
@@ -5456,7 +5453,7 @@
       <c r="D16" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="1">
@@ -5497,7 +5494,7 @@
       <c r="D17" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="1">
@@ -5538,7 +5535,7 @@
       <c r="D18" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="1">
@@ -5579,7 +5576,7 @@
       <c r="D19" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="1">
@@ -5620,7 +5617,7 @@
       <c r="D20" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="1">
@@ -5661,7 +5658,7 @@
       <c r="D21" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="1">
@@ -5702,7 +5699,7 @@
       <c r="D22" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="1">
@@ -5743,7 +5740,7 @@
       <c r="D23" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="1">
@@ -5784,7 +5781,7 @@
       <c r="D24" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="1">
@@ -5825,7 +5822,7 @@
       <c r="D25" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="1">
@@ -5866,7 +5863,7 @@
       <c r="D26" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="1">
@@ -5907,7 +5904,7 @@
       <c r="D27" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="1">
@@ -5948,7 +5945,7 @@
       <c r="D28" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="1">
@@ -5989,7 +5986,7 @@
       <c r="D29" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="1">
@@ -6030,7 +6027,7 @@
       <c r="D30" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="1">
@@ -6071,7 +6068,7 @@
       <c r="D31" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="1">
@@ -6112,7 +6109,7 @@
       <c r="D32" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="1">
@@ -6153,7 +6150,7 @@
       <c r="D33" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="1">
@@ -6194,7 +6191,7 @@
       <c r="D34" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="1">
@@ -6235,7 +6232,7 @@
       <c r="D35" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="1">
@@ -6276,7 +6273,7 @@
       <c r="D36" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="1">
@@ -6317,7 +6314,7 @@
       <c r="D37" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="1">
@@ -6358,7 +6355,7 @@
       <c r="D38" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="1">
@@ -6399,7 +6396,7 @@
       <c r="D39" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="1">
@@ -6440,7 +6437,7 @@
       <c r="D40" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="1">
@@ -6481,7 +6478,7 @@
       <c r="D41" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="1">
@@ -6522,7 +6519,7 @@
       <c r="D42" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="1">
@@ -6563,7 +6560,7 @@
       <c r="D43" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="1">
@@ -6604,7 +6601,7 @@
       <c r="D44" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="1">
@@ -6645,7 +6642,7 @@
       <c r="D45" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="1">
@@ -6686,7 +6683,7 @@
       <c r="D46" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="1">
@@ -6727,7 +6724,7 @@
       <c r="D47" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="1">
@@ -6768,7 +6765,7 @@
       <c r="D48" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="1">
@@ -6809,7 +6806,7 @@
       <c r="D49" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="1">
@@ -6850,7 +6847,7 @@
       <c r="D50" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="1">
@@ -6891,7 +6888,7 @@
       <c r="D51" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="1">
@@ -6932,7 +6929,7 @@
       <c r="D52" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="1">
@@ -6973,7 +6970,7 @@
       <c r="D53" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="1">
@@ -7014,7 +7011,7 @@
       <c r="D54" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="1">
@@ -7055,7 +7052,7 @@
       <c r="D55" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="1">
@@ -7096,7 +7093,7 @@
       <c r="D56" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="1">
@@ -7137,7 +7134,7 @@
       <c r="D57" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="1">
@@ -7178,7 +7175,7 @@
       <c r="D58" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="1">
@@ -7219,7 +7216,7 @@
       <c r="D59" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="1">
@@ -7260,7 +7257,7 @@
       <c r="D60" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="1">
@@ -7301,7 +7298,7 @@
       <c r="D61" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="1">
@@ -7342,7 +7339,7 @@
       <c r="D62" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>17</v>
       </c>
       <c r="F62" s="1">
@@ -7383,7 +7380,7 @@
       <c r="D63" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="1">
@@ -7424,7 +7421,7 @@
       <c r="D64" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>17</v>
       </c>
       <c r="F64" s="1">
@@ -7465,7 +7462,7 @@
       <c r="D65" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="1">
@@ -7506,7 +7503,7 @@
       <c r="D66" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="1">
@@ -7547,7 +7544,7 @@
       <c r="D67" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="1">
@@ -7588,7 +7585,7 @@
       <c r="D68" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="1">
@@ -7629,7 +7626,7 @@
       <c r="D69" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="1">
@@ -7670,7 +7667,7 @@
       <c r="D70" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>17</v>
       </c>
       <c r="F70" s="1">
@@ -7711,7 +7708,7 @@
       <c r="D71" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="1">
@@ -7752,7 +7749,7 @@
       <c r="D72" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="1">
@@ -7793,8 +7790,8 @@
       <c r="D73" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>17</v>
+      <c r="E73" t="s">
+        <v>16</v>
       </c>
       <c r="F73" s="1">
         <v>0.25</v>
@@ -7834,7 +7831,7 @@
       <c r="D74" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="1">
@@ -7875,7 +7872,7 @@
       <c r="D75" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="1">
@@ -7916,7 +7913,7 @@
       <c r="D76" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="1">
@@ -7957,7 +7954,7 @@
       <c r="D77" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>16</v>
       </c>
       <c r="F77" s="1">
@@ -7998,8 +7995,8 @@
       <c r="D78" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>17</v>
+      <c r="E78" t="s">
+        <v>16</v>
       </c>
       <c r="F78" s="1">
         <v>-0.25</v>
@@ -8039,8 +8036,8 @@
       <c r="D79" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>17</v>
+      <c r="E79" t="s">
+        <v>16</v>
       </c>
       <c r="F79" s="1">
         <v>-0.25</v>
@@ -8080,8 +8077,8 @@
       <c r="D80" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>17</v>
+      <c r="E80" t="s">
+        <v>16</v>
       </c>
       <c r="F80" s="1">
         <v>-0.25</v>
@@ -8121,8 +8118,8 @@
       <c r="D81" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>17</v>
+      <c r="E81" t="s">
+        <v>16</v>
       </c>
       <c r="F81" s="1">
         <v>-0.25</v>
@@ -8162,7 +8159,7 @@
       <c r="D82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="1">
@@ -8203,7 +8200,7 @@
       <c r="D83" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="1">
@@ -8244,7 +8241,7 @@
       <c r="D84" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="1">
@@ -8285,7 +8282,7 @@
       <c r="D85" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="1">
@@ -8326,8 +8323,8 @@
       <c r="D86" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>17</v>
+      <c r="E86" t="s">
+        <v>16</v>
       </c>
       <c r="F86" s="1">
         <v>-0.25</v>
@@ -8367,8 +8364,8 @@
       <c r="D87" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>17</v>
+      <c r="E87" t="s">
+        <v>16</v>
       </c>
       <c r="F87" s="1">
         <v>-0.25</v>
@@ -8408,8 +8405,8 @@
       <c r="D88" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>17</v>
+      <c r="E88" t="s">
+        <v>16</v>
       </c>
       <c r="F88" s="1">
         <v>-0.25</v>
@@ -8449,8 +8446,8 @@
       <c r="D89" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>17</v>
+      <c r="E89" t="s">
+        <v>16</v>
       </c>
       <c r="F89" s="1">
         <v>-0.25</v>
@@ -8490,7 +8487,7 @@
       <c r="D90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="1">
@@ -8531,7 +8528,7 @@
       <c r="D91" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>16</v>
       </c>
       <c r="F91" s="1">
@@ -8572,7 +8569,7 @@
       <c r="D92" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="1">
@@ -8613,7 +8610,7 @@
       <c r="D93" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="1">
@@ -8654,8 +8651,8 @@
       <c r="D94" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>17</v>
+      <c r="E94" t="s">
+        <v>16</v>
       </c>
       <c r="F94" s="1">
         <v>-0.25</v>
@@ -8695,8 +8692,8 @@
       <c r="D95" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>17</v>
+      <c r="E95" t="s">
+        <v>16</v>
       </c>
       <c r="F95" s="1">
         <v>-0.25</v>
@@ -8736,8 +8733,8 @@
       <c r="D96" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>17</v>
+      <c r="E96" t="s">
+        <v>16</v>
       </c>
       <c r="F96" s="1">
         <v>-0.25</v>
@@ -8777,8 +8774,8 @@
       <c r="D97" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>17</v>
+      <c r="E97" t="s">
+        <v>16</v>
       </c>
       <c r="F97" s="1">
         <v>-0.25</v>
@@ -8818,7 +8815,7 @@
       <c r="D98" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>16</v>
       </c>
       <c r="F98" s="1">
@@ -8859,7 +8856,7 @@
       <c r="D99" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>16</v>
       </c>
       <c r="F99" s="1">
@@ -8900,7 +8897,7 @@
       <c r="D100" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="1">
@@ -8941,7 +8938,7 @@
       <c r="D101" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>16</v>
       </c>
       <c r="F101" s="1">
@@ -8982,8 +8979,8 @@
       <c r="D102" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>17</v>
+      <c r="E102" t="s">
+        <v>16</v>
       </c>
       <c r="F102" s="1">
         <v>-0.25</v>
@@ -9023,8 +9020,8 @@
       <c r="D103" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>17</v>
+      <c r="E103" t="s">
+        <v>16</v>
       </c>
       <c r="F103" s="1">
         <v>-0.25</v>
@@ -9064,8 +9061,8 @@
       <c r="D104" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>17</v>
+      <c r="E104" t="s">
+        <v>16</v>
       </c>
       <c r="F104" s="1">
         <v>-0.25</v>
@@ -9105,8 +9102,8 @@
       <c r="D105" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>17</v>
+      <c r="E105" t="s">
+        <v>16</v>
       </c>
       <c r="F105" s="1">
         <v>-0.25</v>
@@ -9146,7 +9143,7 @@
       <c r="D106" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" t="s">
         <v>16</v>
       </c>
       <c r="F106" s="1">
@@ -9187,7 +9184,7 @@
       <c r="D107" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" t="s">
         <v>16</v>
       </c>
       <c r="F107" s="1">
@@ -9228,7 +9225,7 @@
       <c r="D108" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" t="s">
         <v>16</v>
       </c>
       <c r="F108" s="1">
@@ -9269,7 +9266,7 @@
       <c r="D109" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" t="s">
         <v>16</v>
       </c>
       <c r="F109" s="1">
@@ -9310,8 +9307,8 @@
       <c r="D110" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>17</v>
+      <c r="E110" t="s">
+        <v>16</v>
       </c>
       <c r="F110" s="1">
         <v>-0.25</v>
@@ -9351,8 +9348,8 @@
       <c r="D111" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>17</v>
+      <c r="E111" t="s">
+        <v>16</v>
       </c>
       <c r="F111" s="1">
         <v>-0.25</v>
@@ -9392,8 +9389,8 @@
       <c r="D112" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>17</v>
+      <c r="E112" t="s">
+        <v>16</v>
       </c>
       <c r="F112" s="1">
         <v>-0.25</v>
@@ -9433,8 +9430,8 @@
       <c r="D113" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>17</v>
+      <c r="E113" t="s">
+        <v>16</v>
       </c>
       <c r="F113" s="1">
         <v>-0.25</v>
@@ -9474,7 +9471,7 @@
       <c r="D114" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" t="s">
         <v>16</v>
       </c>
       <c r="F114" s="1">
@@ -9515,7 +9512,7 @@
       <c r="D115" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" t="s">
         <v>16</v>
       </c>
       <c r="F115" s="1">
@@ -9556,7 +9553,7 @@
       <c r="D116" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="1">
@@ -9597,7 +9594,7 @@
       <c r="D117" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="1">
@@ -9638,8 +9635,8 @@
       <c r="D118" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>17</v>
+      <c r="E118" t="s">
+        <v>16</v>
       </c>
       <c r="F118" s="1">
         <v>-0.25</v>
@@ -9679,8 +9676,8 @@
       <c r="D119" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>17</v>
+      <c r="E119" t="s">
+        <v>16</v>
       </c>
       <c r="F119" s="1">
         <v>-0.25</v>
@@ -9720,8 +9717,8 @@
       <c r="D120" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>17</v>
+      <c r="E120" t="s">
+        <v>16</v>
       </c>
       <c r="F120" s="1">
         <v>-0.25</v>
@@ -9761,8 +9758,8 @@
       <c r="D121" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>17</v>
+      <c r="E121" t="s">
+        <v>16</v>
       </c>
       <c r="F121" s="1">
         <v>-0.25</v>
@@ -9802,7 +9799,7 @@
       <c r="D122" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="1">
@@ -9843,7 +9840,7 @@
       <c r="D123" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="1">
@@ -9884,7 +9881,7 @@
       <c r="D124" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="1">
@@ -9925,7 +9922,7 @@
       <c r="D125" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" t="s">
         <v>16</v>
       </c>
       <c r="F125" s="1">
@@ -9966,8 +9963,8 @@
       <c r="D126" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>17</v>
+      <c r="E126" t="s">
+        <v>16</v>
       </c>
       <c r="F126" s="1">
         <v>-0.25</v>
@@ -10007,8 +10004,8 @@
       <c r="D127" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>17</v>
+      <c r="E127" t="s">
+        <v>16</v>
       </c>
       <c r="F127" s="1">
         <v>-0.25</v>
@@ -10048,8 +10045,8 @@
       <c r="D128" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>17</v>
+      <c r="E128" t="s">
+        <v>16</v>
       </c>
       <c r="F128" s="1">
         <v>-0.25</v>
@@ -10089,8 +10086,8 @@
       <c r="D129" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>17</v>
+      <c r="E129" t="s">
+        <v>16</v>
       </c>
       <c r="F129" s="1">
         <v>-0.25</v>
@@ -10130,7 +10127,7 @@
       <c r="D130" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" t="s">
         <v>16</v>
       </c>
       <c r="F130" s="1">
@@ -10171,7 +10168,7 @@
       <c r="D131" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" t="s">
         <v>16</v>
       </c>
       <c r="F131" s="1">
@@ -10212,7 +10209,7 @@
       <c r="D132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" t="s">
         <v>16</v>
       </c>
       <c r="F132" s="1">
@@ -10253,7 +10250,7 @@
       <c r="D133" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" t="s">
         <v>16</v>
       </c>
       <c r="F133" s="1">
@@ -10294,8 +10291,8 @@
       <c r="D134" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>17</v>
+      <c r="E134" t="s">
+        <v>16</v>
       </c>
       <c r="F134" s="1">
         <v>-0.25</v>
@@ -10335,8 +10332,8 @@
       <c r="D135" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>17</v>
+      <c r="E135" t="s">
+        <v>16</v>
       </c>
       <c r="F135" s="1">
         <v>-0.25</v>
@@ -10376,8 +10373,8 @@
       <c r="D136" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>17</v>
+      <c r="E136" t="s">
+        <v>16</v>
       </c>
       <c r="F136" s="1">
         <v>-0.25</v>
@@ -10417,8 +10414,8 @@
       <c r="D137" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>17</v>
+      <c r="E137" t="s">
+        <v>16</v>
       </c>
       <c r="F137" s="1">
         <v>-0.25</v>
@@ -10458,7 +10455,7 @@
       <c r="D138" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" t="s">
         <v>16</v>
       </c>
       <c r="F138" s="1">
@@ -10499,7 +10496,7 @@
       <c r="D139" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" t="s">
         <v>16</v>
       </c>
       <c r="F139" s="1">
@@ -10540,7 +10537,7 @@
       <c r="D140" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" t="s">
         <v>16</v>
       </c>
       <c r="F140" s="1">
@@ -10581,7 +10578,7 @@
       <c r="D141" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" t="s">
         <v>16</v>
       </c>
       <c r="F141" s="1">
@@ -10616,14 +10613,14 @@
       <c r="B142" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>17</v>
+      <c r="E142" t="s">
+        <v>16</v>
       </c>
       <c r="F142" s="1">
         <v>-0.25</v>
@@ -10663,8 +10660,8 @@
       <c r="D143" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>17</v>
+      <c r="E143" t="s">
+        <v>16</v>
       </c>
       <c r="F143" s="1">
         <v>-0.25</v>
@@ -10704,8 +10701,8 @@
       <c r="D144" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>17</v>
+      <c r="E144" t="s">
+        <v>16</v>
       </c>
       <c r="F144" s="1">
         <v>-0.25</v>
@@ -10745,8 +10742,8 @@
       <c r="D145" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>17</v>
+      <c r="E145" t="s">
+        <v>16</v>
       </c>
       <c r="F145" s="1">
         <v>-0.25</v>
@@ -10786,7 +10783,7 @@
       <c r="D146" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" t="s">
         <v>16</v>
       </c>
       <c r="F146" s="1">
@@ -10827,7 +10824,7 @@
       <c r="D147" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" t="s">
         <v>16</v>
       </c>
       <c r="F147" s="1">
@@ -10868,7 +10865,7 @@
       <c r="D148" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" t="s">
         <v>16</v>
       </c>
       <c r="F148" s="1">
@@ -10909,7 +10906,7 @@
       <c r="D149" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" t="s">
         <v>16</v>
       </c>
       <c r="F149" s="1">
@@ -10950,8 +10947,8 @@
       <c r="D150" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>17</v>
+      <c r="E150" t="s">
+        <v>16</v>
       </c>
       <c r="F150" s="1">
         <v>-0.25</v>
@@ -10991,8 +10988,8 @@
       <c r="D151" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>17</v>
+      <c r="E151" t="s">
+        <v>16</v>
       </c>
       <c r="F151" s="1">
         <v>-0.25</v>
@@ -11032,8 +11029,8 @@
       <c r="D152" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>17</v>
+      <c r="E152" t="s">
+        <v>16</v>
       </c>
       <c r="F152" s="1">
         <v>-0.25</v>
@@ -11073,8 +11070,8 @@
       <c r="D153" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>17</v>
+      <c r="E153" t="s">
+        <v>16</v>
       </c>
       <c r="F153" s="1">
         <v>-0.25</v>
@@ -11114,7 +11111,7 @@
       <c r="D154" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="1">
@@ -11155,7 +11152,7 @@
       <c r="D155" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" t="s">
         <v>16</v>
       </c>
       <c r="F155" s="1">
@@ -11196,7 +11193,7 @@
       <c r="D156" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" t="s">
         <v>16</v>
       </c>
       <c r="F156" s="1">
@@ -11237,7 +11234,7 @@
       <c r="D157" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" t="s">
         <v>16</v>
       </c>
       <c r="F157" s="1">
@@ -11278,8 +11275,8 @@
       <c r="D158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>17</v>
+      <c r="E158" t="s">
+        <v>16</v>
       </c>
       <c r="F158" s="1">
         <v>-0.25</v>
@@ -11319,8 +11316,8 @@
       <c r="D159" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>17</v>
+      <c r="E159" t="s">
+        <v>16</v>
       </c>
       <c r="F159" s="1">
         <v>-0.25</v>
@@ -11360,8 +11357,8 @@
       <c r="D160" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>17</v>
+      <c r="E160" t="s">
+        <v>16</v>
       </c>
       <c r="F160" s="1">
         <v>-0.25</v>
@@ -11401,8 +11398,8 @@
       <c r="D161" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>17</v>
+      <c r="E161" t="s">
+        <v>16</v>
       </c>
       <c r="F161" s="1">
         <v>-0.25</v>
@@ -11442,7 +11439,7 @@
       <c r="D162" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" t="s">
         <v>16</v>
       </c>
       <c r="F162" s="1">
@@ -11483,7 +11480,7 @@
       <c r="D163" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" t="s">
         <v>16</v>
       </c>
       <c r="F163" s="1">
@@ -11524,7 +11521,7 @@
       <c r="D164" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" t="s">
         <v>16</v>
       </c>
       <c r="F164" s="1">
@@ -11565,7 +11562,7 @@
       <c r="D165" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" t="s">
         <v>16</v>
       </c>
       <c r="F165" s="1">
@@ -11600,14 +11597,14 @@
       <c r="B166" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>17</v>
+      <c r="E166" t="s">
+        <v>16</v>
       </c>
       <c r="F166" s="1">
         <v>-0.25</v>
@@ -11647,8 +11644,8 @@
       <c r="D167" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>17</v>
+      <c r="E167" t="s">
+        <v>16</v>
       </c>
       <c r="F167" s="1">
         <v>-0.25</v>
@@ -11688,8 +11685,8 @@
       <c r="D168" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>17</v>
+      <c r="E168" t="s">
+        <v>16</v>
       </c>
       <c r="F168" s="1">
         <v>-0.25</v>
@@ -11729,8 +11726,8 @@
       <c r="D169" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>17</v>
+      <c r="E169" t="s">
+        <v>16</v>
       </c>
       <c r="F169" s="1">
         <v>-0.25</v>
@@ -11770,7 +11767,7 @@
       <c r="D170" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" t="s">
         <v>16</v>
       </c>
       <c r="F170" s="1">
@@ -11811,7 +11808,7 @@
       <c r="D171" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" t="s">
         <v>16</v>
       </c>
       <c r="F171" s="1">
@@ -11852,7 +11849,7 @@
       <c r="D172" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" t="s">
         <v>16</v>
       </c>
       <c r="F172" s="1">
@@ -11893,7 +11890,7 @@
       <c r="D173" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" t="s">
         <v>16</v>
       </c>
       <c r="F173" s="1">
@@ -11934,8 +11931,8 @@
       <c r="D174" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>17</v>
+      <c r="E174" t="s">
+        <v>16</v>
       </c>
       <c r="F174" s="1">
         <v>-0.25</v>
@@ -11975,8 +11972,8 @@
       <c r="D175" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>17</v>
+      <c r="E175" t="s">
+        <v>16</v>
       </c>
       <c r="F175" s="1">
         <v>-0.25</v>
@@ -12016,8 +12013,8 @@
       <c r="D176" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>17</v>
+      <c r="E176" t="s">
+        <v>16</v>
       </c>
       <c r="F176" s="1">
         <v>-0.25</v>
@@ -12057,8 +12054,8 @@
       <c r="D177" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>17</v>
+      <c r="E177" t="s">
+        <v>16</v>
       </c>
       <c r="F177" s="1">
         <v>-0.25</v>
@@ -12098,7 +12095,7 @@
       <c r="D178" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" t="s">
         <v>16</v>
       </c>
       <c r="F178" s="1">
@@ -12139,7 +12136,7 @@
       <c r="D179" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" t="s">
         <v>16</v>
       </c>
       <c r="F179" s="1">
@@ -12180,7 +12177,7 @@
       <c r="D180" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" t="s">
         <v>16</v>
       </c>
       <c r="F180" s="1">
@@ -12221,7 +12218,7 @@
       <c r="D181" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" t="s">
         <v>16</v>
       </c>
       <c r="F181" s="1">
@@ -12262,8 +12259,8 @@
       <c r="D182" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>17</v>
+      <c r="E182" t="s">
+        <v>16</v>
       </c>
       <c r="F182" s="1">
         <v>-0.25</v>
@@ -12303,8 +12300,8 @@
       <c r="D183" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>17</v>
+      <c r="E183" t="s">
+        <v>16</v>
       </c>
       <c r="F183" s="1">
         <v>-0.25</v>
@@ -12344,8 +12341,8 @@
       <c r="D184" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>17</v>
+      <c r="E184" t="s">
+        <v>16</v>
       </c>
       <c r="F184" s="1">
         <v>-0.25</v>
@@ -12385,8 +12382,8 @@
       <c r="D185" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>17</v>
+      <c r="E185" t="s">
+        <v>16</v>
       </c>
       <c r="F185" s="1">
         <v>-0.25</v>
@@ -12426,7 +12423,7 @@
       <c r="D186" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" t="s">
         <v>16</v>
       </c>
       <c r="F186" s="1">
@@ -12467,7 +12464,7 @@
       <c r="D187" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" t="s">
         <v>16</v>
       </c>
       <c r="F187" s="1">
@@ -12508,7 +12505,7 @@
       <c r="D188" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" t="s">
         <v>16</v>
       </c>
       <c r="F188" s="1">
@@ -12549,7 +12546,7 @@
       <c r="D189" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" t="s">
         <v>16</v>
       </c>
       <c r="F189" s="1">
@@ -12590,7 +12587,7 @@
       <c r="D190" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" t="s">
         <v>17</v>
       </c>
       <c r="F190" s="1">
@@ -12631,7 +12628,7 @@
       <c r="D191" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" t="s">
         <v>17</v>
       </c>
       <c r="F191" s="1">
@@ -12672,7 +12669,7 @@
       <c r="D192" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" t="s">
         <v>17</v>
       </c>
       <c r="F192" s="1">
@@ -12713,7 +12710,7 @@
       <c r="D193" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" t="s">
         <v>17</v>
       </c>
       <c r="F193" s="1">
@@ -12754,8 +12751,8 @@
       <c r="D194" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>16</v>
+      <c r="E194" t="s">
+        <v>17</v>
       </c>
       <c r="F194" s="1">
         <v>0.25</v>
@@ -12795,8 +12792,8 @@
       <c r="D195" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>16</v>
+      <c r="E195" t="s">
+        <v>17</v>
       </c>
       <c r="F195" s="1">
         <v>0.25</v>
@@ -12836,8 +12833,8 @@
       <c r="D196" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>16</v>
+      <c r="E196" t="s">
+        <v>17</v>
       </c>
       <c r="F196" s="1">
         <v>0.25</v>
@@ -12877,8 +12874,8 @@
       <c r="D197" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>16</v>
+      <c r="E197" t="s">
+        <v>17</v>
       </c>
       <c r="F197" s="1">
         <v>0.25</v>
@@ -12918,7 +12915,7 @@
       <c r="D198" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" t="s">
         <v>17</v>
       </c>
       <c r="F198" s="1">
@@ -12959,7 +12956,7 @@
       <c r="D199" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" t="s">
         <v>17</v>
       </c>
       <c r="F199" s="1">
@@ -13000,7 +12997,7 @@
       <c r="D200" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" t="s">
         <v>17</v>
       </c>
       <c r="F200" s="1">
@@ -13041,7 +13038,7 @@
       <c r="D201" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" t="s">
         <v>17</v>
       </c>
       <c r="F201" s="1">
@@ -13082,8 +13079,8 @@
       <c r="D202" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>16</v>
+      <c r="E202" t="s">
+        <v>17</v>
       </c>
       <c r="F202" s="1">
         <v>0.25</v>
@@ -13123,8 +13120,8 @@
       <c r="D203" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>16</v>
+      <c r="E203" t="s">
+        <v>17</v>
       </c>
       <c r="F203" s="1">
         <v>0.25</v>
@@ -13164,8 +13161,8 @@
       <c r="D204" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>16</v>
+      <c r="E204" t="s">
+        <v>17</v>
       </c>
       <c r="F204" s="1">
         <v>0.25</v>
@@ -13205,8 +13202,8 @@
       <c r="D205" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>16</v>
+      <c r="E205" t="s">
+        <v>17</v>
       </c>
       <c r="F205" s="1">
         <v>0.25</v>
@@ -13246,7 +13243,7 @@
       <c r="D206" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" t="s">
         <v>17</v>
       </c>
       <c r="F206" s="1">
@@ -13287,7 +13284,7 @@
       <c r="D207" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" t="s">
         <v>17</v>
       </c>
       <c r="F207" s="1">
@@ -13328,7 +13325,7 @@
       <c r="D208" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" t="s">
         <v>17</v>
       </c>
       <c r="F208" s="1">
@@ -13369,7 +13366,7 @@
       <c r="D209" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209" t="s">
         <v>17</v>
       </c>
       <c r="F209" s="1">
@@ -13410,8 +13407,8 @@
       <c r="D210" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>16</v>
+      <c r="E210" t="s">
+        <v>17</v>
       </c>
       <c r="F210" s="1">
         <v>0.25</v>
@@ -13451,8 +13448,8 @@
       <c r="D211" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>16</v>
+      <c r="E211" t="s">
+        <v>17</v>
       </c>
       <c r="F211" s="1">
         <v>0.25</v>
@@ -13492,8 +13489,8 @@
       <c r="D212" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>16</v>
+      <c r="E212" t="s">
+        <v>17</v>
       </c>
       <c r="F212" s="1">
         <v>0.25</v>
@@ -13533,8 +13530,8 @@
       <c r="D213" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>16</v>
+      <c r="E213" t="s">
+        <v>17</v>
       </c>
       <c r="F213" s="1">
         <v>0.25</v>
@@ -13574,7 +13571,7 @@
       <c r="D214" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" t="s">
         <v>17</v>
       </c>
       <c r="F214" s="1">
@@ -13615,7 +13612,7 @@
       <c r="D215" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" t="s">
         <v>17</v>
       </c>
       <c r="F215" s="1">
@@ -13656,7 +13653,7 @@
       <c r="D216" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" t="s">
         <v>17</v>
       </c>
       <c r="F216" s="1">
@@ -13697,7 +13694,7 @@
       <c r="D217" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" t="s">
         <v>17</v>
       </c>
       <c r="F217" s="1">
@@ -13738,8 +13735,8 @@
       <c r="D218" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>16</v>
+      <c r="E218" t="s">
+        <v>17</v>
       </c>
       <c r="F218" s="1">
         <v>0.25</v>
@@ -13779,8 +13776,8 @@
       <c r="D219" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>16</v>
+      <c r="E219" t="s">
+        <v>17</v>
       </c>
       <c r="F219" s="1">
         <v>0.25</v>
@@ -13820,8 +13817,8 @@
       <c r="D220" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>16</v>
+      <c r="E220" t="s">
+        <v>17</v>
       </c>
       <c r="F220" s="1">
         <v>0.25</v>
@@ -13861,8 +13858,8 @@
       <c r="D221" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>16</v>
+      <c r="E221" t="s">
+        <v>17</v>
       </c>
       <c r="F221" s="1">
         <v>0.25</v>
@@ -13902,7 +13899,7 @@
       <c r="D222" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" t="s">
         <v>17</v>
       </c>
       <c r="F222" s="1">
@@ -13943,7 +13940,7 @@
       <c r="D223" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" t="s">
         <v>17</v>
       </c>
       <c r="F223" s="1">
@@ -13984,7 +13981,7 @@
       <c r="D224" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E224" t="s">
         <v>17</v>
       </c>
       <c r="F224" s="1">
@@ -14025,7 +14022,7 @@
       <c r="D225" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" t="s">
         <v>17</v>
       </c>
       <c r="F225" s="1">
@@ -14066,8 +14063,8 @@
       <c r="D226" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>16</v>
+      <c r="E226" t="s">
+        <v>17</v>
       </c>
       <c r="F226" s="1">
         <v>0.25</v>
@@ -14107,8 +14104,8 @@
       <c r="D227" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>16</v>
+      <c r="E227" t="s">
+        <v>17</v>
       </c>
       <c r="F227" s="1">
         <v>0.25</v>
@@ -14148,8 +14145,8 @@
       <c r="D228" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>16</v>
+      <c r="E228" t="s">
+        <v>17</v>
       </c>
       <c r="F228" s="1">
         <v>0.25</v>
@@ -14189,8 +14186,8 @@
       <c r="D229" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>16</v>
+      <c r="E229" t="s">
+        <v>17</v>
       </c>
       <c r="F229" s="1">
         <v>0.25</v>
@@ -14230,7 +14227,7 @@
       <c r="D230" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" t="s">
         <v>17</v>
       </c>
       <c r="F230" s="1">
@@ -14271,7 +14268,7 @@
       <c r="D231" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" t="s">
         <v>17</v>
       </c>
       <c r="F231" s="1">
@@ -14312,7 +14309,7 @@
       <c r="D232" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E232" t="s">
         <v>17</v>
       </c>
       <c r="F232" s="1">
@@ -14353,7 +14350,7 @@
       <c r="D233" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="E233" t="s">
         <v>17</v>
       </c>
       <c r="F233" s="1">
@@ -14394,8 +14391,8 @@
       <c r="D234" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>16</v>
+      <c r="E234" t="s">
+        <v>17</v>
       </c>
       <c r="F234" s="1">
         <v>0.25</v>
@@ -14435,8 +14432,8 @@
       <c r="D235" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>16</v>
+      <c r="E235" t="s">
+        <v>17</v>
       </c>
       <c r="F235" s="1">
         <v>0.25</v>
@@ -14476,8 +14473,8 @@
       <c r="D236" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>16</v>
+      <c r="E236" t="s">
+        <v>17</v>
       </c>
       <c r="F236" s="1">
         <v>0.25</v>
@@ -14517,8 +14514,8 @@
       <c r="D237" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>16</v>
+      <c r="E237" t="s">
+        <v>17</v>
       </c>
       <c r="F237" s="1">
         <v>0.25</v>
@@ -14558,7 +14555,7 @@
       <c r="D238" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E238" t="s">
         <v>17</v>
       </c>
       <c r="F238" s="1">
@@ -14599,7 +14596,7 @@
       <c r="D239" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E239" t="s">
         <v>17</v>
       </c>
       <c r="F239" s="1">
@@ -14640,7 +14637,7 @@
       <c r="D240" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" t="s">
         <v>17</v>
       </c>
       <c r="F240" s="1">
@@ -14681,7 +14678,7 @@
       <c r="D241" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="E241" t="s">
         <v>17</v>
       </c>
       <c r="F241" s="1">
@@ -14722,8 +14719,8 @@
       <c r="D242" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>16</v>
+      <c r="E242" t="s">
+        <v>17</v>
       </c>
       <c r="F242" s="1">
         <v>0.25</v>
@@ -14763,8 +14760,8 @@
       <c r="D243" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>16</v>
+      <c r="E243" t="s">
+        <v>17</v>
       </c>
       <c r="F243" s="1">
         <v>0.25</v>
@@ -14804,8 +14801,8 @@
       <c r="D244" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>16</v>
+      <c r="E244" t="s">
+        <v>17</v>
       </c>
       <c r="F244" s="1">
         <v>0.25</v>
@@ -14845,8 +14842,8 @@
       <c r="D245" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>16</v>
+      <c r="E245" t="s">
+        <v>17</v>
       </c>
       <c r="F245" s="1">
         <v>0.25</v>
@@ -14886,7 +14883,7 @@
       <c r="D246" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E246" t="s">
         <v>17</v>
       </c>
       <c r="F246" s="1">
@@ -14927,7 +14924,7 @@
       <c r="D247" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="E247" t="s">
         <v>17</v>
       </c>
       <c r="F247" s="1">
@@ -14968,7 +14965,7 @@
       <c r="D248" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E248" t="s">
         <v>17</v>
       </c>
       <c r="F248" s="1">
@@ -15009,7 +15006,7 @@
       <c r="D249" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="E249" t="s">
         <v>17</v>
       </c>
       <c r="F249" s="1">
@@ -15050,8 +15047,8 @@
       <c r="D250" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>16</v>
+      <c r="E250" t="s">
+        <v>17</v>
       </c>
       <c r="F250" s="1">
         <v>0.25</v>
@@ -15091,8 +15088,8 @@
       <c r="D251" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>16</v>
+      <c r="E251" t="s">
+        <v>17</v>
       </c>
       <c r="F251" s="1">
         <v>0.25</v>
@@ -15132,8 +15129,8 @@
       <c r="D252" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>16</v>
+      <c r="E252" t="s">
+        <v>17</v>
       </c>
       <c r="F252" s="1">
         <v>0.25</v>
@@ -15173,8 +15170,8 @@
       <c r="D253" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>16</v>
+      <c r="E253" t="s">
+        <v>17</v>
       </c>
       <c r="F253" s="1">
         <v>0.25</v>
@@ -15214,7 +15211,7 @@
       <c r="D254" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E254" t="s">
         <v>17</v>
       </c>
       <c r="F254" s="1">
@@ -15255,7 +15252,7 @@
       <c r="D255" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E255" t="s">
         <v>17</v>
       </c>
       <c r="F255" s="1">
@@ -15296,7 +15293,7 @@
       <c r="D256" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E256" t="s">
         <v>17</v>
       </c>
       <c r="F256" s="1">
@@ -15337,7 +15334,7 @@
       <c r="D257" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E257" t="s">
         <v>17</v>
       </c>
       <c r="F257" s="1">
@@ -15378,8 +15375,8 @@
       <c r="D258" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>16</v>
+      <c r="E258" t="s">
+        <v>17</v>
       </c>
       <c r="F258" s="1">
         <v>0.25</v>
@@ -15419,8 +15416,8 @@
       <c r="D259" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>16</v>
+      <c r="E259" t="s">
+        <v>17</v>
       </c>
       <c r="F259" s="1">
         <v>0.25</v>
@@ -15460,8 +15457,8 @@
       <c r="D260" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>16</v>
+      <c r="E260" t="s">
+        <v>17</v>
       </c>
       <c r="F260" s="1">
         <v>0.25</v>
@@ -15501,8 +15498,8 @@
       <c r="D261" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="E261" s="1" t="s">
-        <v>16</v>
+      <c r="E261" t="s">
+        <v>17</v>
       </c>
       <c r="F261" s="1">
         <v>0.25</v>
@@ -15542,7 +15539,7 @@
       <c r="D262" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="E262" t="s">
         <v>17</v>
       </c>
       <c r="F262" s="1">
@@ -15583,7 +15580,7 @@
       <c r="D263" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E263" t="s">
         <v>17</v>
       </c>
       <c r="F263" s="1">
@@ -15624,7 +15621,7 @@
       <c r="D264" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E264" t="s">
         <v>17</v>
       </c>
       <c r="F264" s="1">
@@ -15665,7 +15662,7 @@
       <c r="D265" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E265" t="s">
         <v>17</v>
       </c>
       <c r="F265" s="1">
@@ -15706,8 +15703,8 @@
       <c r="D266" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E266" s="1" t="s">
-        <v>16</v>
+      <c r="E266" t="s">
+        <v>17</v>
       </c>
       <c r="F266" s="1">
         <v>0.25</v>
@@ -15747,8 +15744,8 @@
       <c r="D267" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="E267" s="1" t="s">
-        <v>16</v>
+      <c r="E267" t="s">
+        <v>17</v>
       </c>
       <c r="F267" s="1">
         <v>0.25</v>
@@ -15788,8 +15785,8 @@
       <c r="D268" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E268" s="1" t="s">
-        <v>16</v>
+      <c r="E268" t="s">
+        <v>17</v>
       </c>
       <c r="F268" s="1">
         <v>0.25</v>
@@ -15829,8 +15826,8 @@
       <c r="D269" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="E269" s="1" t="s">
-        <v>16</v>
+      <c r="E269" t="s">
+        <v>17</v>
       </c>
       <c r="F269" s="1">
         <v>0.25</v>
@@ -15870,7 +15867,7 @@
       <c r="D270" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E270" s="1" t="s">
+      <c r="E270" t="s">
         <v>17</v>
       </c>
       <c r="F270" s="1">
@@ -15911,7 +15908,7 @@
       <c r="D271" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E271" s="1" t="s">
+      <c r="E271" t="s">
         <v>17</v>
       </c>
       <c r="F271" s="1">
@@ -15952,7 +15949,7 @@
       <c r="D272" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E272" s="1" t="s">
+      <c r="E272" t="s">
         <v>17</v>
       </c>
       <c r="F272" s="1">
@@ -15993,7 +15990,7 @@
       <c r="D273" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="E273" s="1" t="s">
+      <c r="E273" t="s">
         <v>17</v>
       </c>
       <c r="F273" s="1">
@@ -16034,8 +16031,8 @@
       <c r="D274" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E274" s="1" t="s">
-        <v>16</v>
+      <c r="E274" t="s">
+        <v>17</v>
       </c>
       <c r="F274" s="1">
         <v>0.25</v>
@@ -16075,8 +16072,8 @@
       <c r="D275" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E275" s="1" t="s">
-        <v>16</v>
+      <c r="E275" t="s">
+        <v>17</v>
       </c>
       <c r="F275" s="1">
         <v>0.25</v>
@@ -16116,8 +16113,8 @@
       <c r="D276" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>16</v>
+      <c r="E276" t="s">
+        <v>17</v>
       </c>
       <c r="F276" s="1">
         <v>0.25</v>
@@ -16157,8 +16154,8 @@
       <c r="D277" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="E277" s="1" t="s">
-        <v>16</v>
+      <c r="E277" t="s">
+        <v>17</v>
       </c>
       <c r="F277" s="1">
         <v>0.25</v>
@@ -16198,7 +16195,7 @@
       <c r="D278" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="E278" s="1" t="s">
+      <c r="E278" t="s">
         <v>17</v>
       </c>
       <c r="F278" s="1">
@@ -16239,7 +16236,7 @@
       <c r="D279" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E279" t="s">
         <v>17</v>
       </c>
       <c r="F279" s="1">
@@ -16280,7 +16277,7 @@
       <c r="D280" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E280" t="s">
         <v>17</v>
       </c>
       <c r="F280" s="1">
@@ -16321,7 +16318,7 @@
       <c r="D281" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="E281" s="1" t="s">
+      <c r="E281" t="s">
         <v>17</v>
       </c>
       <c r="F281" s="1">
@@ -16362,8 +16359,8 @@
       <c r="D282" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E282" s="1" t="s">
-        <v>16</v>
+      <c r="E282" t="s">
+        <v>17</v>
       </c>
       <c r="F282" s="1">
         <v>0.25</v>
@@ -16403,8 +16400,8 @@
       <c r="D283" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E283" s="1" t="s">
-        <v>16</v>
+      <c r="E283" t="s">
+        <v>17</v>
       </c>
       <c r="F283" s="1">
         <v>0.25</v>
@@ -16444,8 +16441,8 @@
       <c r="D284" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>16</v>
+      <c r="E284" t="s">
+        <v>17</v>
       </c>
       <c r="F284" s="1">
         <v>0.25</v>
@@ -16485,8 +16482,8 @@
       <c r="D285" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>16</v>
+      <c r="E285" t="s">
+        <v>17</v>
       </c>
       <c r="F285" s="1">
         <v>0.25</v>
@@ -16526,7 +16523,7 @@
       <c r="D286" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E286" s="1" t="s">
+      <c r="E286" t="s">
         <v>17</v>
       </c>
       <c r="F286" s="1">
@@ -16567,7 +16564,7 @@
       <c r="D287" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="E287" s="1" t="s">
+      <c r="E287" t="s">
         <v>17</v>
       </c>
       <c r="F287" s="1">
@@ -16608,7 +16605,7 @@
       <c r="D288" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E288" t="s">
         <v>17</v>
       </c>
       <c r="F288" s="1">
@@ -16649,7 +16646,7 @@
       <c r="D289" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="E289" s="1" t="s">
+      <c r="E289" t="s">
         <v>17</v>
       </c>
       <c r="F289" s="1">
@@ -16690,8 +16687,8 @@
       <c r="D290" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>16</v>
+      <c r="E290" t="s">
+        <v>17</v>
       </c>
       <c r="F290" s="1">
         <v>0.25</v>
@@ -16731,8 +16728,8 @@
       <c r="D291" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="E291" s="1" t="s">
-        <v>16</v>
+      <c r="E291" t="s">
+        <v>17</v>
       </c>
       <c r="F291" s="1">
         <v>0.25</v>
@@ -16772,8 +16769,8 @@
       <c r="D292" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E292" s="1" t="s">
-        <v>16</v>
+      <c r="E292" t="s">
+        <v>17</v>
       </c>
       <c r="F292" s="1">
         <v>0.25</v>
@@ -16813,8 +16810,8 @@
       <c r="D293" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="E293" s="1" t="s">
-        <v>16</v>
+      <c r="E293" t="s">
+        <v>17</v>
       </c>
       <c r="F293" s="1">
         <v>0.25</v>
@@ -16854,7 +16851,7 @@
       <c r="D294" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="E294" s="1" t="s">
+      <c r="E294" t="s">
         <v>17</v>
       </c>
       <c r="F294" s="1">
@@ -16895,7 +16892,7 @@
       <c r="D295" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="E295" s="1" t="s">
+      <c r="E295" t="s">
         <v>17</v>
       </c>
       <c r="F295" s="1">
@@ -16936,7 +16933,7 @@
       <c r="D296" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="E296" s="1" t="s">
+      <c r="E296" t="s">
         <v>17</v>
       </c>
       <c r="F296" s="1">
@@ -16977,7 +16974,7 @@
       <c r="D297" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E297" s="1" t="s">
+      <c r="E297" t="s">
         <v>17</v>
       </c>
       <c r="F297" s="1">
@@ -17018,8 +17015,8 @@
       <c r="D298" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="E298" s="1" t="s">
-        <v>16</v>
+      <c r="E298" t="s">
+        <v>17</v>
       </c>
       <c r="F298" s="1">
         <v>0.25</v>
@@ -17059,8 +17056,8 @@
       <c r="D299" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E299" s="1" t="s">
-        <v>16</v>
+      <c r="E299" t="s">
+        <v>17</v>
       </c>
       <c r="F299" s="1">
         <v>0.25</v>
@@ -17100,8 +17097,8 @@
       <c r="D300" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E300" s="1" t="s">
-        <v>16</v>
+      <c r="E300" t="s">
+        <v>17</v>
       </c>
       <c r="F300" s="1">
         <v>0.25</v>
@@ -17141,8 +17138,8 @@
       <c r="D301" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E301" s="1" t="s">
-        <v>16</v>
+      <c r="E301" t="s">
+        <v>17</v>
       </c>
       <c r="F301" s="1">
         <v>0.25</v>

--- a/green_orange_purple/Condition_File_green_orange_purple.xlsx
+++ b/green_orange_purple/Condition_File_green_orange_purple.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/green_orange_purple/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaperr.WIN\Desktop\green_orange_purple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E943C8-FC97-C94A-BB70-5996273416F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="13160" xr2:uid="{50BE362F-E7B0-5840-BBD3-B85E4770FAD8}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3053,9 +3052,6 @@
     <t>./Stimuli/reg_trials/marblejar3_left_different_21.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/reg_trials/marblejar3_left_different_22</t>
-  </si>
-  <si>
     <t>./Stimuli/reg_trials/marblejar3_left_same_18.jpg</t>
   </si>
   <si>
@@ -3074,9 +3070,6 @@
     <t>./Stimuli/reg_trials/marblejar3_left_different_26.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/reg_trials/marblejar3_left_different_27</t>
-  </si>
-  <si>
     <t>./Stimuli/reg_trials/marblejar3_left_different_29.jpg</t>
   </si>
   <si>
@@ -4407,12 +4400,18 @@
   </si>
   <si>
     <t>['green', 'green', 'green', 'darkorange', 'darkorange','darkorange',  'green', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_27.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_22.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -4801,31 +4800,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4763C67E-82ED-7748-9439-DB0637206C14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F304" sqref="F304"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="47.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="24.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="47.3984375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="24.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="45.59765625" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.296875" style="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="1"/>
+    <col min="14" max="16384" width="10.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4866,18 +4865,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -4895,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
@@ -4907,18 +4906,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -4936,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>18</v>
@@ -4948,18 +4947,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -4977,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>13</v>
@@ -4989,18 +4988,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -5018,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
@@ -5030,18 +5029,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -5059,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>18</v>
@@ -5071,18 +5070,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -5100,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>18</v>
@@ -5112,18 +5111,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -5141,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>13</v>
@@ -5153,18 +5152,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -5182,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
@@ -5194,18 +5193,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -5223,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>13</v>
@@ -5235,18 +5234,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -5264,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>18</v>
@@ -5276,18 +5275,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -5305,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
@@ -5317,18 +5316,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -5346,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>13</v>
@@ -5358,15 +5357,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>632</v>
@@ -5387,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>13</v>
@@ -5399,18 +5398,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -5428,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>13</v>
@@ -5440,18 +5439,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -5469,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>18</v>
@@ -5481,18 +5480,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -5510,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>18</v>
@@ -5522,18 +5521,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -5551,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>18</v>
@@ -5563,18 +5562,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -5592,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>18</v>
@@ -5604,18 +5603,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -5633,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>13</v>
@@ -5645,18 +5644,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -5674,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>13</v>
@@ -5686,18 +5685,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -5715,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>13</v>
@@ -5727,18 +5726,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -5756,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>13</v>
@@ -5768,18 +5767,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -5797,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>18</v>
@@ -5809,18 +5808,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -5838,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>18</v>
@@ -5850,18 +5849,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -5879,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>18</v>
@@ -5891,18 +5890,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -5920,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>13</v>
@@ -5932,18 +5931,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -5961,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>13</v>
@@ -5973,18 +5972,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -6002,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>13</v>
@@ -6014,18 +6013,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="140" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -6043,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>18</v>
@@ -6055,18 +6054,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -6084,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>13</v>
@@ -6096,18 +6095,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -6125,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>13</v>
@@ -6137,18 +6136,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
@@ -6166,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>18</v>
@@ -6178,18 +6177,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -6207,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>18</v>
@@ -6219,18 +6218,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -6248,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>13</v>
@@ -6260,18 +6259,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -6289,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>13</v>
@@ -6301,18 +6300,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -6330,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>18</v>
@@ -6342,18 +6341,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
@@ -6371,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>13</v>
@@ -6383,18 +6382,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
@@ -6412,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>13</v>
@@ -6424,18 +6423,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
@@ -6453,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>18</v>
@@ -6465,18 +6464,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="140" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -6494,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>18</v>
@@ -6506,18 +6505,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -6535,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>18</v>
@@ -6547,18 +6546,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -6576,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>13</v>
@@ -6588,18 +6587,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>830</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -6617,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>13</v>
@@ -6629,18 +6628,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -6658,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>13</v>
@@ -6670,15 +6669,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="140" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>569</v>
@@ -6699,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>18</v>
@@ -6711,18 +6710,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="140" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
@@ -6740,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>18</v>
@@ -6752,18 +6751,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E48" t="s">
         <v>17</v>
@@ -6781,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>13</v>
@@ -6793,18 +6792,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>552</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
@@ -6822,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>13</v>
@@ -6834,18 +6833,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -6863,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>13</v>
@@ -6875,18 +6874,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
@@ -6904,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>13</v>
@@ -6916,18 +6915,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -6945,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>18</v>
@@ -6957,18 +6956,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E53" t="s">
         <v>16</v>
@@ -6986,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>18</v>
@@ -6998,18 +6997,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
@@ -7027,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>13</v>
@@ -7039,18 +7038,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
@@ -7068,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>18</v>
@@ -7080,18 +7079,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -7109,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>13</v>
@@ -7121,18 +7120,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
@@ -7150,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>18</v>
@@ -7162,18 +7161,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -7191,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>18</v>
@@ -7203,18 +7202,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E59" t="s">
         <v>16</v>
@@ -7232,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>13</v>
@@ -7244,18 +7243,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E60" t="s">
         <v>16</v>
@@ -7273,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>13</v>
@@ -7285,18 +7284,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E61" t="s">
         <v>16</v>
@@ -7314,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>13</v>
@@ -7326,18 +7325,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -7355,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>18</v>
@@ -7367,18 +7366,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -7396,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>18</v>
@@ -7408,18 +7407,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -7437,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>13</v>
@@ -7449,15 +7448,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>832</v>
@@ -7478,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>13</v>
@@ -7490,18 +7489,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -7519,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>18</v>
@@ -7531,18 +7530,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
@@ -7560,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>18</v>
@@ -7572,18 +7571,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E68" t="s">
         <v>16</v>
@@ -7601,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>13</v>
@@ -7613,18 +7612,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -7642,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>13</v>
@@ -7654,18 +7653,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -7683,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>13</v>
@@ -7695,18 +7694,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
@@ -7724,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>18</v>
@@ -7736,18 +7735,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="140" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
@@ -7765,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>18</v>
@@ -7777,18 +7776,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
@@ -7806,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>13</v>
@@ -7818,18 +7817,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
@@ -7847,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>13</v>
@@ -7859,18 +7858,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
@@ -7888,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>13</v>
@@ -7900,18 +7899,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -7929,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>13</v>
@@ -7941,7 +7940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>384</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>18</v>
@@ -7982,7 +7981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>386</v>
       </c>
@@ -8011,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>18</v>
@@ -8023,7 +8022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>388</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>13</v>
@@ -8064,7 +8063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>390</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>18</v>
@@ -8105,7 +8104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>392</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>13</v>
@@ -8146,7 +8145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>393</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>18</v>
@@ -8187,7 +8186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>395</v>
       </c>
@@ -8216,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>13</v>
@@ -8228,7 +8227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>397</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>13</v>
@@ -8269,7 +8268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>399</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>13</v>
@@ -8310,7 +8309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="140" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>401</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>18</v>
@@ -8351,7 +8350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="140" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>403</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>13</v>
@@ -8392,7 +8391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>405</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>18</v>
@@ -8433,7 +8432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>406</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>13</v>
@@ -8474,7 +8473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>408</v>
       </c>
@@ -8503,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>13</v>
@@ -8515,7 +8514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>410</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>412</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>413</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>18</v>
@@ -8638,7 +8637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>414</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>18</v>
@@ -8679,7 +8678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>416</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>18</v>
@@ -8720,7 +8719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>418</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>13</v>
@@ -8761,7 +8760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>419</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>18</v>
@@ -8802,7 +8801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>421</v>
       </c>
@@ -8831,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>13</v>
@@ -8843,7 +8842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>423</v>
       </c>
@@ -8872,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>13</v>
@@ -8884,7 +8883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>425</v>
       </c>
@@ -8925,7 +8924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>427</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>429</v>
       </c>
@@ -9007,7 +9006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>431</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>433</v>
       </c>
@@ -9089,7 +9088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>435</v>
       </c>
@@ -9130,7 +9129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>437</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>438</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>440</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>442</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>444</v>
       </c>
@@ -9335,7 +9334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>446</v>
       </c>
@@ -9376,7 +9375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>448</v>
       </c>
@@ -9417,7 +9416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>450</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>452</v>
       </c>
@@ -9499,7 +9498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>454</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>456</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>458</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>460</v>
       </c>
@@ -9663,7 +9662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>462</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>464</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>466</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>468</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>470</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>472</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>474</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>476</v>
       </c>
@@ -9991,7 +9990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>477</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>479</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>481</v>
       </c>
@@ -10114,7 +10113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>483</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>485</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>487</v>
       </c>
@@ -10237,7 +10236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>489</v>
       </c>
@@ -10278,7 +10277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>491</v>
       </c>
@@ -10319,7 +10318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>493</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>495</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>497</v>
       </c>
@@ -10442,7 +10441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>498</v>
       </c>
@@ -10483,7 +10482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>499</v>
       </c>
@@ -10524,7 +10523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>501</v>
       </c>
@@ -10565,7 +10564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>503</v>
       </c>
@@ -10606,7 +10605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>505</v>
       </c>
@@ -10614,10 +10613,10 @@
         <v>506</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E142" t="s">
         <v>16</v>
@@ -10647,7 +10646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>507</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>509</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>511</v>
       </c>
@@ -10770,7 +10769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>513</v>
       </c>
@@ -10811,7 +10810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>515</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>516</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>518</v>
       </c>
@@ -10934,7 +10933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>520</v>
       </c>
@@ -10975,7 +10974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>522</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>524</v>
       </c>
@@ -11057,7 +11056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>526</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>528</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>530</v>
       </c>
@@ -11180,7 +11179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>532</v>
       </c>
@@ -11221,7 +11220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>533</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>535</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>537</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>539</v>
       </c>
@@ -11385,7 +11384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>541</v>
       </c>
@@ -11426,7 +11425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>542</v>
       </c>
@@ -11467,7 +11466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>544</v>
       </c>
@@ -11508,18 +11507,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E164" t="s">
         <v>16</v>
@@ -11549,7 +11548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>547</v>
       </c>
@@ -11590,7 +11589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>549</v>
       </c>
@@ -11598,10 +11597,10 @@
         <v>550</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E166" t="s">
         <v>16</v>
@@ -11631,7 +11630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>551</v>
       </c>
@@ -11672,7 +11671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>553</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>555</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>557</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>559</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>561</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>563</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>564</v>
       </c>
@@ -11959,7 +11958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>566</v>
       </c>
@@ -12000,7 +11999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>568</v>
       </c>
@@ -12041,7 +12040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>570</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>572</v>
       </c>
@@ -12123,7 +12122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>573</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>575</v>
       </c>
@@ -12205,7 +12204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>577</v>
       </c>
@@ -12246,7 +12245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>579</v>
       </c>
@@ -12287,7 +12286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>580</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>582</v>
       </c>
@@ -12369,7 +12368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>584</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>586</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>588</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>590</v>
       </c>
@@ -12533,7 +12532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>39</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>40</v>
       </c>
@@ -12615,7 +12614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
@@ -12656,7 +12655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>42</v>
       </c>
@@ -12697,7 +12696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>44</v>
       </c>
@@ -12738,7 +12737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>45</v>
       </c>
@@ -12779,7 +12778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>46</v>
       </c>
@@ -12820,7 +12819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>47</v>
       </c>
@@ -12861,7 +12860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>49</v>
       </c>
@@ -12902,7 +12901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>50</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>51</v>
       </c>
@@ -12984,7 +12983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>53</v>
       </c>
@@ -13025,7 +13024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>54</v>
       </c>
@@ -13066,7 +13065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>55</v>
       </c>
@@ -13107,7 +13106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>56</v>
       </c>
@@ -13148,7 +13147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>57</v>
       </c>
@@ -13189,7 +13188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>58</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>59</v>
       </c>
@@ -13259,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>18</v>
@@ -13271,7 +13270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>61</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>18</v>
@@ -13312,7 +13311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>62</v>
       </c>
@@ -13353,7 +13352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>63</v>
       </c>
@@ -13394,7 +13393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>64</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>65</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>13</v>
@@ -13476,7 +13475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>66</v>
       </c>
@@ -13505,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>18</v>
@@ -13517,7 +13516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>67</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>13</v>
@@ -13558,7 +13557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>68</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>18</v>
@@ -13599,7 +13598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>69</v>
       </c>
@@ -13628,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>13</v>
@@ -13640,7 +13639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>70</v>
       </c>
@@ -13669,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1013</v>
+        <v>1456</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>13</v>
@@ -13681,7 +13680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>71</v>
       </c>
@@ -13710,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>18</v>
@@ -13722,7 +13721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>72</v>
       </c>
@@ -13751,7 +13750,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>13</v>
@@ -13763,7 +13762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>73</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>18</v>
@@ -13804,7 +13803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>74</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>13</v>
@@ -13845,7 +13844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>75</v>
       </c>
@@ -13874,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>13</v>
@@ -13886,7 +13885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>76</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>18</v>
@@ -13927,7 +13926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>77</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K223" s="1" t="s">
         <v>18</v>
@@ -13968,7 +13967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>78</v>
       </c>
@@ -13997,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>13</v>
@@ -14009,7 +14008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>79</v>
       </c>
@@ -14038,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>13</v>
@@ -14050,7 +14049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>80</v>
       </c>
@@ -14079,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>13</v>
@@ -14091,7 +14090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>81</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>18</v>
@@ -14132,7 +14131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>82</v>
       </c>
@@ -14161,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>13</v>
@@ -14173,7 +14172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>83</v>
       </c>
@@ -14202,7 +14201,7 @@
         <v>0</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="K229" s="1" t="s">
         <v>18</v>
@@ -14214,7 +14213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>84</v>
       </c>
@@ -14243,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>13</v>
@@ -14255,7 +14254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>85</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>13</v>
@@ -14296,7 +14295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>86</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K232" s="1" t="s">
         <v>18</v>
@@ -14337,7 +14336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>87</v>
       </c>
@@ -14366,7 +14365,7 @@
         <v>0</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>18</v>
@@ -14378,7 +14377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>88</v>
       </c>
@@ -14407,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="K234" s="1" t="s">
         <v>18</v>
@@ -14419,7 +14418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>89</v>
       </c>
@@ -14448,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>13</v>
@@ -14460,7 +14459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>90</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>18</v>
@@ -14501,7 +14500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>91</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>13</v>
@@ -14542,7 +14541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>92</v>
       </c>
@@ -14571,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>13</v>
@@ -14583,7 +14582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>93</v>
       </c>
@@ -14612,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="K239" s="1" t="s">
         <v>18</v>
@@ -14624,7 +14623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>94</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>13</v>
@@ -14665,7 +14664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>95</v>
       </c>
@@ -14694,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>13</v>
@@ -14706,7 +14705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>96</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>13</v>
@@ -14747,7 +14746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>97</v>
       </c>
@@ -14776,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>18</v>
@@ -14788,7 +14787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>98</v>
       </c>
@@ -14817,7 +14816,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>13</v>
@@ -14829,7 +14828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>99</v>
       </c>
@@ -14858,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>13</v>
@@ -14870,7 +14869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>100</v>
       </c>
@@ -14899,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>18</v>
@@ -14911,7 +14910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>101</v>
       </c>
@@ -14940,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>18</v>
@@ -14952,7 +14951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>102</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>13</v>
@@ -14993,7 +14992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>103</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>18</v>
@@ -15034,7 +15033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>104</v>
       </c>
@@ -15063,7 +15062,7 @@
         <v>0</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>13</v>
@@ -15075,7 +15074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>105</v>
       </c>
@@ -15104,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K251" s="1" t="s">
         <v>13</v>
@@ -15116,7 +15115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>106</v>
       </c>
@@ -15145,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>18</v>
@@ -15157,7 +15156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>107</v>
       </c>
@@ -15186,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K253" s="1" t="s">
         <v>18</v>
@@ -15198,7 +15197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>108</v>
       </c>
@@ -15227,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K254" s="1" t="s">
         <v>13</v>
@@ -15239,7 +15238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>109</v>
       </c>
@@ -15268,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>18</v>
@@ -15280,7 +15279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>110</v>
       </c>
@@ -15309,7 +15308,7 @@
         <v>0</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>18</v>
@@ -15321,7 +15320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>111</v>
       </c>
@@ -15350,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>13</v>
@@ -15362,7 +15361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>112</v>
       </c>
@@ -15391,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>13</v>
@@ -15403,7 +15402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>114</v>
       </c>
@@ -15432,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>18</v>
@@ -15444,7 +15443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>115</v>
       </c>
@@ -15473,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>13</v>
@@ -15485,7 +15484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>116</v>
       </c>
@@ -15514,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>13</v>
@@ -15526,7 +15525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>117</v>
       </c>
@@ -15555,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>18</v>
@@ -15567,7 +15566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>118</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>18</v>
@@ -15608,7 +15607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>119</v>
       </c>
@@ -15637,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K264" s="1" t="s">
         <v>13</v>
@@ -15649,7 +15648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>120</v>
       </c>
@@ -15678,7 +15677,7 @@
         <v>0</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>18</v>
@@ -15690,7 +15689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>121</v>
       </c>
@@ -15719,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>18</v>
@@ -15731,7 +15730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>122</v>
       </c>
@@ -15760,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>18</v>
@@ -15772,7 +15771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>123</v>
       </c>
@@ -15801,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>13</v>
@@ -15813,7 +15812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>124</v>
       </c>
@@ -15842,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>18</v>
@@ -15854,7 +15853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="140" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>125</v>
       </c>
@@ -15883,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>18</v>
@@ -15895,7 +15894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>126</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>18</v>
@@ -15936,7 +15935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>127</v>
       </c>
@@ -15965,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="K272" s="1" t="s">
         <v>18</v>
@@ -15977,7 +15976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>128</v>
       </c>
@@ -16006,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>13</v>
@@ -16018,7 +16017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>129</v>
       </c>
@@ -16047,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>13</v>
@@ -16059,7 +16058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>130</v>
       </c>
@@ -16088,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>13</v>
@@ -16100,7 +16099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>131</v>
       </c>
@@ -16129,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>18</v>
@@ -16141,7 +16140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>132</v>
       </c>
@@ -16170,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>18</v>
@@ -16182,7 +16181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>133</v>
       </c>
@@ -16211,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>18</v>
@@ -16223,7 +16222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>134</v>
       </c>
@@ -16252,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>18</v>
@@ -16264,7 +16263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>135</v>
       </c>
@@ -16293,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>13</v>
@@ -16305,7 +16304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>136</v>
       </c>
@@ -16334,7 +16333,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>13</v>
@@ -16346,7 +16345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>137</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>13</v>
@@ -16387,7 +16386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>138</v>
       </c>
@@ -16416,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>18</v>
@@ -16428,7 +16427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>139</v>
       </c>
@@ -16457,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>13</v>
@@ -16469,7 +16468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>140</v>
       </c>
@@ -16498,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>18</v>
@@ -16510,7 +16509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>141</v>
       </c>
@@ -16539,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>18</v>
@@ -16551,7 +16550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>143</v>
       </c>
@@ -16580,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>13</v>
@@ -16592,7 +16591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>144</v>
       </c>
@@ -16621,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>13</v>
@@ -16633,7 +16632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>145</v>
       </c>
@@ -16662,7 +16661,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>13</v>
@@ -16674,7 +16673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>146</v>
       </c>
@@ -16703,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>18</v>
@@ -16715,7 +16714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>147</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>18</v>
@@ -16756,7 +16755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>148</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>18</v>
@@ -16797,7 +16796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>149</v>
       </c>
@@ -16826,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>18</v>
@@ -16838,7 +16837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>150</v>
       </c>
@@ -16867,7 +16866,7 @@
         <v>0</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>18</v>
@@ -16879,7 +16878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>151</v>
       </c>
@@ -16908,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>18</v>
@@ -16920,7 +16919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>153</v>
       </c>
@@ -16949,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>13</v>
@@ -16961,7 +16960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>154</v>
       </c>
@@ -16990,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>18</v>
@@ -17002,7 +17001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>155</v>
       </c>
@@ -17031,7 +17030,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>18</v>
@@ -17043,7 +17042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>156</v>
       </c>
@@ -17072,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>13</v>
@@ -17084,7 +17083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="75" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>157</v>
       </c>
@@ -17113,7 +17112,7 @@
         <v>0</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>18</v>
@@ -17125,7 +17124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="100" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>158</v>
       </c>
@@ -17154,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>13</v>

--- a/green_orange_purple/Condition_File_green_orange_purple.xlsx
+++ b/green_orange_purple/Condition_File_green_orange_purple.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaperr.WIN\Desktop\green_orange_purple\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/green_orange_purple/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCB4D3C-E84E-FB41-BBB3-D72C1032D154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="13155"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="13160" xr2:uid="{50BE362F-E7B0-5840-BBD3-B85E4770FAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3052,6 +3053,9 @@
     <t>./Stimuli/reg_trials/marblejar3_left_different_21.jpg</t>
   </si>
   <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_22</t>
+  </si>
+  <si>
     <t>./Stimuli/reg_trials/marblejar3_left_same_18.jpg</t>
   </si>
   <si>
@@ -3070,6 +3074,9 @@
     <t>./Stimuli/reg_trials/marblejar3_left_different_26.jpg</t>
   </si>
   <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_27</t>
+  </si>
+  <si>
     <t>./Stimuli/reg_trials/marblejar3_left_different_29.jpg</t>
   </si>
   <si>
@@ -4400,18 +4407,12 @@
   </si>
   <si>
     <t>['green', 'green', 'green', 'darkorange', 'darkorange','darkorange',  'green', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>./Stimuli/reg_trials/marblejar3_left_different_27.jpg</t>
-  </si>
-  <si>
-    <t>./Stimuli/reg_trials/marblejar3_left_different_22.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -4800,31 +4801,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4763C67E-82ED-7748-9439-DB0637206C14}">
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J217" sqref="J217"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.69921875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="47.3984375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="24.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="47.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.69921875" style="1"/>
+    <col min="14" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4865,18 +4866,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -4894,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
@@ -4906,21 +4907,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1">
         <v>-0.25</v>
@@ -4935,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>18</v>
@@ -4947,21 +4948,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="91" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>-0.25</v>
@@ -4976,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>13</v>
@@ -4988,21 +4989,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>-0.25</v>
@@ -5017,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
@@ -5029,18 +5030,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -5058,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>18</v>
@@ -5070,18 +5071,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -5099,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>18</v>
@@ -5111,18 +5112,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -5140,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>13</v>
@@ -5152,18 +5153,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -5181,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
@@ -5193,18 +5194,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -5222,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>13</v>
@@ -5234,18 +5235,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -5263,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>18</v>
@@ -5275,18 +5276,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -5304,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
@@ -5316,18 +5317,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -5345,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>13</v>
@@ -5357,15 +5358,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>632</v>
@@ -5386,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>13</v>
@@ -5398,18 +5399,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -5427,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>13</v>
@@ -5439,18 +5440,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -5468,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>18</v>
@@ -5480,18 +5481,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -5509,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>18</v>
@@ -5521,18 +5522,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -5550,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>18</v>
@@ -5562,18 +5563,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -5591,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>18</v>
@@ -5603,18 +5604,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -5632,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>13</v>
@@ -5644,18 +5645,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -5673,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>13</v>
@@ -5685,18 +5686,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -5714,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>13</v>
@@ -5726,18 +5727,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -5755,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>13</v>
@@ -5767,18 +5768,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -5796,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>18</v>
@@ -5808,18 +5809,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -5837,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>18</v>
@@ -5849,18 +5850,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -5878,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>18</v>
@@ -5890,18 +5891,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -5919,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>13</v>
@@ -5931,18 +5932,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -5960,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>13</v>
@@ -5972,18 +5973,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -6001,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>13</v>
@@ -6013,18 +6014,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -6042,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>18</v>
@@ -6054,18 +6055,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -6083,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>13</v>
@@ -6095,18 +6096,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -6124,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>13</v>
@@ -6136,18 +6137,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
@@ -6165,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>18</v>
@@ -6177,18 +6178,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -6206,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>18</v>
@@ -6218,18 +6219,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -6247,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>13</v>
@@ -6259,18 +6260,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -6288,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>13</v>
@@ -6300,18 +6301,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -6329,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>18</v>
@@ -6341,18 +6342,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
@@ -6370,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>13</v>
@@ -6382,18 +6383,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
@@ -6411,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>13</v>
@@ -6423,18 +6424,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
@@ -6452,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>18</v>
@@ -6464,18 +6465,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -6493,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>18</v>
@@ -6505,18 +6506,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -6534,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>18</v>
@@ -6546,18 +6547,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -6575,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>13</v>
@@ -6587,18 +6588,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>830</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -6616,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>13</v>
@@ -6628,18 +6629,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -6657,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>13</v>
@@ -6669,15 +6670,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>569</v>
@@ -6698,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>18</v>
@@ -6710,18 +6711,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
@@ -6739,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>18</v>
@@ -6751,18 +6752,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="E48" t="s">
         <v>17</v>
@@ -6780,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>13</v>
@@ -6792,18 +6793,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>552</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
@@ -6821,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>13</v>
@@ -6833,18 +6834,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -6862,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>13</v>
@@ -6874,18 +6875,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
@@ -6903,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>13</v>
@@ -6915,18 +6916,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -6944,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>18</v>
@@ -6956,18 +6957,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="E53" t="s">
         <v>16</v>
@@ -6985,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>18</v>
@@ -6997,18 +6998,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
@@ -7026,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>13</v>
@@ -7038,18 +7039,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
@@ -7067,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>18</v>
@@ -7079,18 +7080,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -7108,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>13</v>
@@ -7120,18 +7121,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
@@ -7149,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>18</v>
@@ -7161,18 +7162,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -7190,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>18</v>
@@ -7202,18 +7203,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="E59" t="s">
         <v>16</v>
@@ -7231,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>13</v>
@@ -7243,18 +7244,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="E60" t="s">
         <v>16</v>
@@ -7272,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>13</v>
@@ -7284,18 +7285,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="E61" t="s">
         <v>16</v>
@@ -7313,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>13</v>
@@ -7325,18 +7326,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
@@ -7354,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>18</v>
@@ -7366,18 +7367,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -7395,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>18</v>
@@ -7407,18 +7408,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
@@ -7436,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>13</v>
@@ -7448,15 +7449,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>832</v>
@@ -7477,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>13</v>
@@ -7489,18 +7490,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -7518,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>18</v>
@@ -7530,18 +7531,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
@@ -7559,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>18</v>
@@ -7571,18 +7572,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="E68" t="s">
         <v>16</v>
@@ -7600,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>13</v>
@@ -7612,18 +7613,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -7641,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>13</v>
@@ -7653,18 +7654,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -7682,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>13</v>
@@ -7694,18 +7695,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
@@ -7723,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>18</v>
@@ -7735,18 +7736,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
@@ -7764,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>18</v>
@@ -7776,18 +7777,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
@@ -7805,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>13</v>
@@ -7817,18 +7818,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
@@ -7846,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>13</v>
@@ -7858,18 +7859,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
@@ -7887,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>13</v>
@@ -7899,18 +7900,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -7928,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>13</v>
@@ -7940,7 +7941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>384</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>18</v>
@@ -7981,7 +7982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>386</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>18</v>
@@ -8022,7 +8023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>388</v>
       </c>
@@ -8051,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="K79" s="5" t="s">
         <v>13</v>
@@ -8063,7 +8064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>390</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>18</v>
@@ -8104,7 +8105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>392</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>13</v>
@@ -8145,7 +8146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>393</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>18</v>
@@ -8186,7 +8187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>395</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>13</v>
@@ -8227,7 +8228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>397</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>13</v>
@@ -8268,7 +8269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>399</v>
       </c>
@@ -8297,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>13</v>
@@ -8309,7 +8310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>401</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>18</v>
@@ -8350,7 +8351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>403</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>13</v>
@@ -8391,7 +8392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>405</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>18</v>
@@ -8432,7 +8433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>406</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>13</v>
@@ -8473,7 +8474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>408</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>13</v>
@@ -8514,7 +8515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>410</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>412</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>413</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>18</v>
@@ -8637,7 +8638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>414</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>18</v>
@@ -8678,7 +8679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>416</v>
       </c>
@@ -8707,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>18</v>
@@ -8719,7 +8720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>418</v>
       </c>
@@ -8748,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>13</v>
@@ -8760,7 +8761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>419</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>18</v>
@@ -8801,7 +8802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>421</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>13</v>
@@ -8842,7 +8843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>423</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>13</v>
@@ -8883,7 +8884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>425</v>
       </c>
@@ -8924,7 +8925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>427</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>429</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>431</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>433</v>
       </c>
@@ -9088,7 +9089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>435</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>437</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>438</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>440</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>442</v>
       </c>
@@ -9293,7 +9294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>444</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>446</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>448</v>
       </c>
@@ -9416,7 +9417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>450</v>
       </c>
@@ -9457,7 +9458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>452</v>
       </c>
@@ -9498,7 +9499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>454</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>456</v>
       </c>
@@ -9580,7 +9581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>458</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>460</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>462</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>464</v>
       </c>
@@ -9744,7 +9745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>466</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>468</v>
       </c>
@@ -9826,7 +9827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>470</v>
       </c>
@@ -9867,7 +9868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>472</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>474</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>476</v>
       </c>
@@ -9990,7 +9991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>477</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>479</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>481</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>483</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>485</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>487</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>489</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>491</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>493</v>
       </c>
@@ -10359,7 +10360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>495</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>497</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>498</v>
       </c>
@@ -10482,7 +10483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>499</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>501</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>503</v>
       </c>
@@ -10605,7 +10606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>505</v>
       </c>
@@ -10613,10 +10614,10 @@
         <v>506</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="E142" t="s">
         <v>16</v>
@@ -10646,7 +10647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>507</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>509</v>
       </c>
@@ -10728,7 +10729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>511</v>
       </c>
@@ -10769,7 +10770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>513</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>515</v>
       </c>
@@ -10851,7 +10852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>516</v>
       </c>
@@ -10892,7 +10893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>518</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>520</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>522</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>524</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>526</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>528</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>530</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>532</v>
       </c>
@@ -11220,7 +11221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>533</v>
       </c>
@@ -11261,7 +11262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>535</v>
       </c>
@@ -11302,7 +11303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>537</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>539</v>
       </c>
@@ -11384,7 +11385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>541</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>542</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>544</v>
       </c>
@@ -11507,18 +11508,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E164" t="s">
         <v>16</v>
@@ -11548,7 +11549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>547</v>
       </c>
@@ -11589,7 +11590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>549</v>
       </c>
@@ -11597,10 +11598,10 @@
         <v>550</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="E166" t="s">
         <v>16</v>
@@ -11630,7 +11631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>551</v>
       </c>
@@ -11671,7 +11672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>553</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>555</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>557</v>
       </c>
@@ -11794,7 +11795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>559</v>
       </c>
@@ -11835,7 +11836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>561</v>
       </c>
@@ -11876,7 +11877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>563</v>
       </c>
@@ -11917,7 +11918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>564</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>566</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>568</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>570</v>
       </c>
@@ -12081,7 +12082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>572</v>
       </c>
@@ -12122,7 +12123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>573</v>
       </c>
@@ -12163,7 +12164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>575</v>
       </c>
@@ -12204,7 +12205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>577</v>
       </c>
@@ -12245,7 +12246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>579</v>
       </c>
@@ -12286,7 +12287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>580</v>
       </c>
@@ -12327,7 +12328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>582</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>584</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>586</v>
       </c>
@@ -12450,7 +12451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>588</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>590</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>39</v>
       </c>
@@ -12573,7 +12574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>40</v>
       </c>
@@ -12614,7 +12615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
@@ -12655,7 +12656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>42</v>
       </c>
@@ -12696,7 +12697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>44</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>45</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>46</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>47</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>49</v>
       </c>
@@ -12901,7 +12902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>50</v>
       </c>
@@ -12942,7 +12943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>51</v>
       </c>
@@ -12983,7 +12984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>53</v>
       </c>
@@ -13024,7 +13025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>54</v>
       </c>
@@ -13065,7 +13066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>55</v>
       </c>
@@ -13106,7 +13107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>56</v>
       </c>
@@ -13147,7 +13148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>57</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>58</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>59</v>
       </c>
@@ -13258,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>18</v>
@@ -13270,7 +13271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>61</v>
       </c>
@@ -13299,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>18</v>
@@ -13311,7 +13312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>62</v>
       </c>
@@ -13352,7 +13353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>63</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>64</v>
       </c>
@@ -13434,7 +13435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>65</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>1457</v>
+        <v>1006</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>13</v>
@@ -13475,7 +13476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>66</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>18</v>
@@ -13516,7 +13517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>67</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>13</v>
@@ -13557,7 +13558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>68</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>18</v>
@@ -13598,7 +13599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>69</v>
       </c>
@@ -13627,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>13</v>
@@ -13639,7 +13640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>70</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1456</v>
+        <v>1013</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>13</v>
@@ -13680,7 +13681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>71</v>
       </c>
@@ -13709,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>18</v>
@@ -13721,7 +13722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>72</v>
       </c>
@@ -13750,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>13</v>
@@ -13762,7 +13763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>73</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>18</v>
@@ -13803,7 +13804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>74</v>
       </c>
@@ -13832,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>13</v>
@@ -13844,7 +13845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>75</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>13</v>
@@ -13885,7 +13886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>76</v>
       </c>
@@ -13914,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>18</v>
@@ -13926,7 +13927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>77</v>
       </c>
@@ -13955,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="K223" s="1" t="s">
         <v>18</v>
@@ -13967,7 +13968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>78</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>13</v>
@@ -14008,7 +14009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>79</v>
       </c>
@@ -14037,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>13</v>
@@ -14049,7 +14050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>80</v>
       </c>
@@ -14078,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>13</v>
@@ -14090,7 +14091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>81</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>18</v>
@@ -14131,7 +14132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>82</v>
       </c>
@@ -14160,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>13</v>
@@ -14172,7 +14173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>83</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="K229" s="1" t="s">
         <v>18</v>
@@ -14213,7 +14214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>84</v>
       </c>
@@ -14242,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>13</v>
@@ -14254,7 +14255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>85</v>
       </c>
@@ -14283,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>13</v>
@@ -14295,7 +14296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>86</v>
       </c>
@@ -14324,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="K232" s="1" t="s">
         <v>18</v>
@@ -14336,7 +14337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>87</v>
       </c>
@@ -14365,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>18</v>
@@ -14377,7 +14378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>88</v>
       </c>
@@ -14406,7 +14407,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="K234" s="1" t="s">
         <v>18</v>
@@ -14418,7 +14419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>89</v>
       </c>
@@ -14447,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>13</v>
@@ -14459,7 +14460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>90</v>
       </c>
@@ -14488,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>18</v>
@@ -14500,7 +14501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>91</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>13</v>
@@ -14541,7 +14542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>92</v>
       </c>
@@ -14570,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>13</v>
@@ -14582,7 +14583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>93</v>
       </c>
@@ -14611,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="K239" s="1" t="s">
         <v>18</v>
@@ -14623,7 +14624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>94</v>
       </c>
@@ -14652,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>13</v>
@@ -14664,7 +14665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>95</v>
       </c>
@@ -14693,7 +14694,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>13</v>
@@ -14705,7 +14706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>96</v>
       </c>
@@ -14734,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>13</v>
@@ -14746,7 +14747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>97</v>
       </c>
@@ -14775,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>18</v>
@@ -14787,7 +14788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>98</v>
       </c>
@@ -14816,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>13</v>
@@ -14828,7 +14829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>99</v>
       </c>
@@ -14857,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>13</v>
@@ -14869,7 +14870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>100</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>18</v>
@@ -14910,7 +14911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>101</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>18</v>
@@ -14951,7 +14952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>102</v>
       </c>
@@ -14980,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>13</v>
@@ -14992,7 +14993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>103</v>
       </c>
@@ -15021,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>18</v>
@@ -15033,7 +15034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>104</v>
       </c>
@@ -15062,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>13</v>
@@ -15074,7 +15075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>105</v>
       </c>
@@ -15103,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="K251" s="1" t="s">
         <v>13</v>
@@ -15115,7 +15116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>106</v>
       </c>
@@ -15144,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>18</v>
@@ -15156,7 +15157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>107</v>
       </c>
@@ -15185,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="K253" s="1" t="s">
         <v>18</v>
@@ -15197,7 +15198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>108</v>
       </c>
@@ -15226,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="K254" s="1" t="s">
         <v>13</v>
@@ -15238,7 +15239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>109</v>
       </c>
@@ -15267,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>18</v>
@@ -15279,7 +15280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>110</v>
       </c>
@@ -15308,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>18</v>
@@ -15320,7 +15321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>111</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>13</v>
@@ -15361,7 +15362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>112</v>
       </c>
@@ -15390,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>13</v>
@@ -15402,7 +15403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>114</v>
       </c>
@@ -15431,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>18</v>
@@ -15443,7 +15444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>115</v>
       </c>
@@ -15472,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>13</v>
@@ -15484,7 +15485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>116</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>0</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>13</v>
@@ -15525,7 +15526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>117</v>
       </c>
@@ -15554,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>18</v>
@@ -15566,7 +15567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>118</v>
       </c>
@@ -15595,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>18</v>
@@ -15607,7 +15608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>119</v>
       </c>
@@ -15636,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="K264" s="1" t="s">
         <v>13</v>
@@ -15648,7 +15649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>120</v>
       </c>
@@ -15677,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>18</v>
@@ -15689,7 +15690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>121</v>
       </c>
@@ -15718,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>18</v>
@@ -15730,7 +15731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>122</v>
       </c>
@@ -15759,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>18</v>
@@ -15771,7 +15772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>123</v>
       </c>
@@ -15800,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>13</v>
@@ -15812,7 +15813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>124</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>18</v>
@@ -15853,7 +15854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>125</v>
       </c>
@@ -15882,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>18</v>
@@ -15894,7 +15895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>126</v>
       </c>
@@ -15923,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>18</v>
@@ -15935,7 +15936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>127</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="K272" s="1" t="s">
         <v>18</v>
@@ -15976,7 +15977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>128</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>13</v>
@@ -16017,7 +16018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>129</v>
       </c>
@@ -16046,7 +16047,7 @@
         <v>0</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>13</v>
@@ -16058,7 +16059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>130</v>
       </c>
@@ -16087,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>13</v>
@@ -16099,7 +16100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>131</v>
       </c>
@@ -16128,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>18</v>
@@ -16140,7 +16141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>132</v>
       </c>
@@ -16169,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>18</v>
@@ -16181,7 +16182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>133</v>
       </c>
@@ -16210,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>18</v>
@@ -16222,7 +16223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>134</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>18</v>
@@ -16263,7 +16264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>135</v>
       </c>
@@ -16292,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>13</v>
@@ -16304,7 +16305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>136</v>
       </c>
@@ -16333,7 +16334,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>13</v>
@@ -16345,7 +16346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>137</v>
       </c>
@@ -16374,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>13</v>
@@ -16386,7 +16387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>138</v>
       </c>
@@ -16415,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>18</v>
@@ -16427,7 +16428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>139</v>
       </c>
@@ -16456,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>13</v>
@@ -16468,7 +16469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>140</v>
       </c>
@@ -16497,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>18</v>
@@ -16509,7 +16510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>141</v>
       </c>
@@ -16538,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>18</v>
@@ -16550,7 +16551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>143</v>
       </c>
@@ -16579,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>13</v>
@@ -16591,7 +16592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>144</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>0</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>13</v>
@@ -16632,7 +16633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>145</v>
       </c>
@@ -16661,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>13</v>
@@ -16673,7 +16674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>146</v>
       </c>
@@ -16702,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>18</v>
@@ -16714,7 +16715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>147</v>
       </c>
@@ -16743,7 +16744,7 @@
         <v>0</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>18</v>
@@ -16755,7 +16756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>148</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>18</v>
@@ -16796,7 +16797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>149</v>
       </c>
@@ -16825,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>18</v>
@@ -16837,7 +16838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>150</v>
       </c>
@@ -16866,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>18</v>
@@ -16878,7 +16879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>151</v>
       </c>
@@ -16907,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>18</v>
@@ -16919,7 +16920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>153</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>13</v>
@@ -16960,7 +16961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>154</v>
       </c>
@@ -16989,7 +16990,7 @@
         <v>0</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>18</v>
@@ -17001,7 +17002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>155</v>
       </c>
@@ -17030,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>18</v>
@@ -17042,7 +17043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>156</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>13</v>
@@ -17083,7 +17084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="75" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>157</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>18</v>
@@ -17124,7 +17125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>158</v>
       </c>
@@ -17153,7 +17154,7 @@
         <v>0</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>13</v>
